--- a/10_Oct/DGAIGAT_octubre_DPCIIT.xlsx
+++ b/10_Oct/DGAIGAT_octubre_DPCIIT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inegi 2020\2024\01_InformeMensual_2024\10_Oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8497F2BF-4F3C-45CD-9EFE-D5A14E591A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8050BAB5-A5D4-4391-BAC0-F3972F7095F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A126976-81CC-4927-B736-8FF5B8573AA7}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="384">
   <si>
     <t>Dirección de Cartografía y Catastro</t>
   </si>
@@ -1212,6 +1212,15 @@
   </si>
   <si>
     <t>Se realizó una reunión de trabajo con la Dirección de Soluciones Geomáticas, como parte de los acuerdos, se les presentó la propuesta del Sistema de Consulta de la Información del Índice Territorial Urbano - Rural (ITUR) con el fin analizar manera más óptima para su posterior integración al Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Urbano.</t>
+  </si>
+  <si>
+    <t>Se comenzó con el análisis de viabilidad y requerimientos para incorporar al servicio de compartición del Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano, en formato WMS, la información del proyecto Grado de Urbanización (DEGURBA) y el Índice Territorial Urbano-Rural (ITUR).</t>
+  </si>
+  <si>
+    <t>Se continúa con el desarrollo y pruebas de funcionamiento de las rutas del servicio de compartición para los datos de los Censos de Población y Vivienda de 2015 y 2010, así como las pruebas para su enlace con los datos de las delimitaciones de las Zonas Metropolitanas de México de los mismos periodos.</t>
+  </si>
+  <si>
+    <t>Se continua con el diseño de los instrumentos de apoyo para la difusión de los servicios de compartición con la información de los Censos de Población y Vivienda de 2015 y 2010, igualmente para las delimitaciones de las Zonas Metropolitanas de México en esos mismos periodos.</t>
   </si>
 </sst>
 </file>
@@ -2368,6 +2377,410 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2377,24 +2790,6 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2413,24 +2808,6 @@
     <xf numFmtId="9" fontId="29" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2440,364 +2817,17 @@
     <xf numFmtId="9" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2808,35 +2838,14 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4327,8 +4336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E8332-6D5A-428C-95F2-0F05D1BFD024}">
   <dimension ref="A1:R209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C192" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I192" sqref="I192"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C141" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I156" sqref="I156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4371,11 +4380,11 @@
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="318" t="s">
+      <c r="G3" s="256" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
       <c r="J3" s="72"/>
       <c r="K3" s="72"/>
       <c r="L3" s="72"/>
@@ -4449,13 +4458,13 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A7" s="295" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="313" t="s">
+      <c r="A7" s="239" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="242" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="309" t="s">
+      <c r="C7" s="244" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="125" t="s">
@@ -4479,55 +4488,55 @@
       <c r="M7" s="137"/>
     </row>
     <row r="8" spans="1:17" ht="38.25" customHeight="1">
-      <c r="A8" s="296"/>
-      <c r="B8" s="317"/>
-      <c r="C8" s="310"/>
+      <c r="A8" s="240"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="245"/>
       <c r="D8" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="196"/>
+      <c r="E8" s="302"/>
       <c r="F8" s="74">
         <v>1</v>
       </c>
-      <c r="G8" s="244" t="s">
+      <c r="G8" s="261" t="s">
         <v>361</v>
       </c>
-      <c r="H8" s="245"/>
-      <c r="I8" s="246"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="263"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="25.5">
-      <c r="A9" s="296"/>
-      <c r="B9" s="317"/>
-      <c r="C9" s="310"/>
+      <c r="A9" s="240"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="245"/>
       <c r="D9" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="197"/>
+      <c r="E9" s="303"/>
       <c r="F9" s="74">
         <v>1</v>
       </c>
-      <c r="G9" s="244" t="s">
+      <c r="G9" s="261" t="s">
         <v>362</v>
       </c>
-      <c r="H9" s="260"/>
-      <c r="I9" s="261"/>
+      <c r="H9" s="267"/>
+      <c r="I9" s="268"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="25.5">
-      <c r="A10" s="296"/>
-      <c r="B10" s="317"/>
-      <c r="C10" s="310"/>
+      <c r="A10" s="240"/>
+      <c r="B10" s="243"/>
+      <c r="C10" s="245"/>
       <c r="D10" s="96" t="s">
         <v>323</v>
       </c>
-      <c r="E10" s="198"/>
+      <c r="E10" s="304"/>
       <c r="F10" s="166">
         <v>0.5</v>
       </c>
@@ -4542,9 +4551,9 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A11" s="296"/>
-      <c r="B11" s="317"/>
-      <c r="C11" s="309" t="s">
+      <c r="A11" s="240"/>
+      <c r="B11" s="243"/>
+      <c r="C11" s="244" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="126" t="s">
@@ -4566,70 +4575,70 @@
       <c r="M11" s="137"/>
     </row>
     <row r="12" spans="1:17" ht="25.5">
-      <c r="A12" s="296"/>
-      <c r="B12" s="317"/>
-      <c r="C12" s="310"/>
+      <c r="A12" s="240"/>
+      <c r="B12" s="243"/>
+      <c r="C12" s="245"/>
       <c r="D12" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="196"/>
+      <c r="E12" s="302"/>
       <c r="F12" s="74">
         <v>1</v>
       </c>
-      <c r="G12" s="232" t="s">
+      <c r="G12" s="275" t="s">
         <v>363</v>
       </c>
-      <c r="H12" s="233"/>
-      <c r="I12" s="234"/>
+      <c r="H12" s="276"/>
+      <c r="I12" s="277"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="25.5">
-      <c r="A13" s="296"/>
-      <c r="B13" s="317"/>
-      <c r="C13" s="310"/>
+      <c r="A13" s="240"/>
+      <c r="B13" s="243"/>
+      <c r="C13" s="245"/>
       <c r="D13" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="197"/>
+      <c r="E13" s="303"/>
       <c r="F13" s="74">
         <v>1</v>
       </c>
-      <c r="G13" s="235"/>
-      <c r="H13" s="236"/>
-      <c r="I13" s="237"/>
+      <c r="G13" s="278"/>
+      <c r="H13" s="279"/>
+      <c r="I13" s="280"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="296"/>
-      <c r="B14" s="317"/>
-      <c r="C14" s="310"/>
+      <c r="A14" s="240"/>
+      <c r="B14" s="243"/>
+      <c r="C14" s="245"/>
       <c r="D14" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="198"/>
+      <c r="E14" s="304"/>
       <c r="F14" s="74">
         <v>1</v>
       </c>
-      <c r="G14" s="238"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="240"/>
+      <c r="G14" s="281"/>
+      <c r="H14" s="282"/>
+      <c r="I14" s="283"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="27" customHeight="1">
-      <c r="A15" s="296"/>
-      <c r="B15" s="298" t="s">
+      <c r="A15" s="240"/>
+      <c r="B15" s="246" t="s">
         <v>347</v>
       </c>
-      <c r="C15" s="309" t="s">
+      <c r="C15" s="244" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="127" t="s">
@@ -4653,13 +4662,13 @@
       <c r="M15" s="137"/>
     </row>
     <row r="16" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A16" s="296"/>
-      <c r="B16" s="299"/>
-      <c r="C16" s="310"/>
+      <c r="A16" s="240"/>
+      <c r="B16" s="247"/>
+      <c r="C16" s="245"/>
       <c r="D16" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="196"/>
+      <c r="E16" s="302"/>
       <c r="F16" s="166">
         <v>0.8</v>
       </c>
@@ -4674,13 +4683,13 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="25.5">
-      <c r="A17" s="296"/>
-      <c r="B17" s="299"/>
-      <c r="C17" s="310"/>
+      <c r="A17" s="240"/>
+      <c r="B17" s="247"/>
+      <c r="C17" s="245"/>
       <c r="D17" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="197"/>
+      <c r="E17" s="303"/>
       <c r="F17" s="166">
         <v>0.8</v>
       </c>
@@ -4695,13 +4704,13 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="25.5">
-      <c r="A18" s="296"/>
-      <c r="B18" s="299"/>
-      <c r="C18" s="310"/>
+      <c r="A18" s="240"/>
+      <c r="B18" s="247"/>
+      <c r="C18" s="245"/>
       <c r="D18" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="197"/>
+      <c r="E18" s="303"/>
       <c r="F18" s="166">
         <v>0.8</v>
       </c>
@@ -4716,13 +4725,13 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" ht="25.5">
-      <c r="A19" s="296"/>
-      <c r="B19" s="299"/>
-      <c r="C19" s="310"/>
+      <c r="A19" s="240"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="245"/>
       <c r="D19" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="198"/>
+      <c r="E19" s="304"/>
       <c r="F19" s="166">
         <v>0.8</v>
       </c>
@@ -4737,9 +4746,9 @@
       <c r="M19" s="90"/>
     </row>
     <row r="20" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A20" s="296"/>
-      <c r="B20" s="299"/>
-      <c r="C20" s="306" t="s">
+      <c r="A20" s="240"/>
+      <c r="B20" s="247"/>
+      <c r="C20" s="248" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="126" t="s">
@@ -4763,13 +4772,13 @@
       <c r="M20" s="137"/>
     </row>
     <row r="21" spans="1:13" ht="25.5">
-      <c r="A21" s="296"/>
-      <c r="B21" s="299"/>
-      <c r="C21" s="307"/>
+      <c r="A21" s="240"/>
+      <c r="B21" s="247"/>
+      <c r="C21" s="249"/>
       <c r="D21" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="196"/>
+      <c r="E21" s="302"/>
       <c r="F21" s="121">
         <v>0.74</v>
       </c>
@@ -4784,13 +4793,13 @@
       <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A22" s="296"/>
-      <c r="B22" s="299"/>
-      <c r="C22" s="307"/>
+      <c r="A22" s="240"/>
+      <c r="B22" s="247"/>
+      <c r="C22" s="249"/>
       <c r="D22" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="197"/>
+      <c r="E22" s="303"/>
       <c r="F22" s="122">
         <v>0.74</v>
       </c>
@@ -4805,13 +4814,13 @@
       <c r="M22" s="90"/>
     </row>
     <row r="23" spans="1:13" ht="38.25">
-      <c r="A23" s="296"/>
-      <c r="B23" s="299"/>
-      <c r="C23" s="307"/>
+      <c r="A23" s="240"/>
+      <c r="B23" s="247"/>
+      <c r="C23" s="249"/>
       <c r="D23" s="107" t="s">
         <v>324</v>
       </c>
-      <c r="E23" s="197"/>
+      <c r="E23" s="303"/>
       <c r="F23" s="121">
         <v>0.74</v>
       </c>
@@ -4826,13 +4835,13 @@
       <c r="M23" s="90"/>
     </row>
     <row r="24" spans="1:13" ht="25.5">
-      <c r="A24" s="296"/>
-      <c r="B24" s="299"/>
-      <c r="C24" s="307"/>
+      <c r="A24" s="240"/>
+      <c r="B24" s="247"/>
+      <c r="C24" s="249"/>
       <c r="D24" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="197"/>
+      <c r="E24" s="303"/>
       <c r="F24" s="121">
         <v>0.74</v>
       </c>
@@ -4847,13 +4856,13 @@
       <c r="M24" s="90"/>
     </row>
     <row r="25" spans="1:13" ht="34.5" customHeight="1">
-      <c r="A25" s="323"/>
-      <c r="B25" s="323"/>
-      <c r="C25" s="308"/>
+      <c r="A25" s="241"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="250"/>
       <c r="D25" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="198"/>
+      <c r="E25" s="304"/>
       <c r="F25" s="166">
         <v>0.7</v>
       </c>
@@ -4868,13 +4877,13 @@
       <c r="M25" s="90"/>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="295" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="298" t="s">
+      <c r="A26" s="239" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="246" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="301" t="s">
+      <c r="C26" s="237" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="127" t="s">
@@ -4898,13 +4907,13 @@
       <c r="M26" s="137"/>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1">
-      <c r="A27" s="296"/>
-      <c r="B27" s="299"/>
-      <c r="C27" s="324"/>
+      <c r="A27" s="240"/>
+      <c r="B27" s="247"/>
+      <c r="C27" s="252"/>
       <c r="D27" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="199"/>
+      <c r="E27" s="305"/>
       <c r="F27" s="75">
         <v>0.72</v>
       </c>
@@ -4919,13 +4928,13 @@
       <c r="M27" s="90"/>
     </row>
     <row r="28" spans="1:13" ht="33" customHeight="1">
-      <c r="A28" s="296"/>
-      <c r="B28" s="299"/>
-      <c r="C28" s="324"/>
+      <c r="A28" s="240"/>
+      <c r="B28" s="247"/>
+      <c r="C28" s="252"/>
       <c r="D28" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="200"/>
+      <c r="E28" s="306"/>
       <c r="F28" s="75">
         <v>0.72</v>
       </c>
@@ -4940,13 +4949,13 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" ht="25.5">
-      <c r="A29" s="296"/>
-      <c r="B29" s="299"/>
-      <c r="C29" s="324"/>
+      <c r="A29" s="240"/>
+      <c r="B29" s="247"/>
+      <c r="C29" s="252"/>
       <c r="D29" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="201"/>
+      <c r="E29" s="307"/>
       <c r="F29" s="75">
         <v>0.72</v>
       </c>
@@ -4961,9 +4970,9 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="296"/>
-      <c r="B30" s="299"/>
-      <c r="C30" s="309" t="s">
+      <c r="A30" s="240"/>
+      <c r="B30" s="247"/>
+      <c r="C30" s="244" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="127" t="s">
@@ -4987,13 +4996,13 @@
       <c r="M30" s="137"/>
     </row>
     <row r="31" spans="1:13" ht="25.5">
-      <c r="A31" s="296"/>
-      <c r="B31" s="299"/>
-      <c r="C31" s="310"/>
+      <c r="A31" s="240"/>
+      <c r="B31" s="247"/>
+      <c r="C31" s="245"/>
       <c r="D31" s="102" t="s">
         <v>291</v>
       </c>
-      <c r="E31" s="199"/>
+      <c r="E31" s="305"/>
       <c r="F31" s="75">
         <v>0.75</v>
       </c>
@@ -5008,13 +5017,13 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" ht="25.5">
-      <c r="A32" s="296"/>
-      <c r="B32" s="299"/>
-      <c r="C32" s="310"/>
+      <c r="A32" s="240"/>
+      <c r="B32" s="247"/>
+      <c r="C32" s="245"/>
       <c r="D32" s="102" t="s">
         <v>290</v>
       </c>
-      <c r="E32" s="200"/>
+      <c r="E32" s="306"/>
       <c r="F32" s="75">
         <v>0.75</v>
       </c>
@@ -5029,13 +5038,13 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="38.25">
-      <c r="A33" s="296"/>
-      <c r="B33" s="299"/>
-      <c r="C33" s="310"/>
+      <c r="A33" s="240"/>
+      <c r="B33" s="247"/>
+      <c r="C33" s="245"/>
       <c r="D33" s="102" t="s">
         <v>355</v>
       </c>
-      <c r="E33" s="201"/>
+      <c r="E33" s="307"/>
       <c r="F33" s="75">
         <v>0.75</v>
       </c>
@@ -5050,9 +5059,9 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="57.75" customHeight="1">
-      <c r="A34" s="296"/>
-      <c r="B34" s="299"/>
-      <c r="C34" s="303" t="s">
+      <c r="A34" s="240"/>
+      <c r="B34" s="247"/>
+      <c r="C34" s="253" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="127" t="s">
@@ -5074,87 +5083,87 @@
       <c r="M34" s="137"/>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
-      <c r="A35" s="296"/>
-      <c r="B35" s="299"/>
-      <c r="C35" s="304"/>
+      <c r="A35" s="240"/>
+      <c r="B35" s="247"/>
+      <c r="C35" s="254"/>
       <c r="D35" s="106" t="s">
         <v>292</v>
       </c>
-      <c r="E35" s="229"/>
+      <c r="E35" s="308"/>
       <c r="F35" s="74">
         <v>0.75</v>
       </c>
-      <c r="G35" s="271" t="s">
+      <c r="G35" s="196" t="s">
         <v>369</v>
       </c>
-      <c r="H35" s="272"/>
-      <c r="I35" s="273"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="198"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
-      <c r="A36" s="296"/>
-      <c r="B36" s="299"/>
-      <c r="C36" s="304"/>
+      <c r="A36" s="240"/>
+      <c r="B36" s="247"/>
+      <c r="C36" s="254"/>
       <c r="D36" s="106" t="s">
         <v>293</v>
       </c>
-      <c r="E36" s="230"/>
+      <c r="E36" s="309"/>
       <c r="F36" s="74">
         <v>0.75</v>
       </c>
-      <c r="G36" s="274"/>
-      <c r="H36" s="275"/>
-      <c r="I36" s="276"/>
+      <c r="G36" s="199"/>
+      <c r="H36" s="200"/>
+      <c r="I36" s="201"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A37" s="296"/>
-      <c r="B37" s="299"/>
-      <c r="C37" s="304"/>
+      <c r="A37" s="240"/>
+      <c r="B37" s="247"/>
+      <c r="C37" s="254"/>
       <c r="D37" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="230"/>
+      <c r="E37" s="309"/>
       <c r="F37" s="74">
         <v>0.75</v>
       </c>
-      <c r="G37" s="274"/>
-      <c r="H37" s="275"/>
-      <c r="I37" s="276"/>
+      <c r="G37" s="199"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="201"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A38" s="296"/>
-      <c r="B38" s="299"/>
-      <c r="C38" s="305"/>
+      <c r="A38" s="240"/>
+      <c r="B38" s="247"/>
+      <c r="C38" s="255"/>
       <c r="D38" s="106" t="s">
         <v>294</v>
       </c>
-      <c r="E38" s="231"/>
+      <c r="E38" s="310"/>
       <c r="F38" s="74">
         <v>0.5</v>
       </c>
-      <c r="G38" s="277"/>
-      <c r="H38" s="278"/>
-      <c r="I38" s="279"/>
+      <c r="G38" s="202"/>
+      <c r="H38" s="203"/>
+      <c r="I38" s="204"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="33" customHeight="1">
-      <c r="A39" s="296"/>
-      <c r="B39" s="299"/>
-      <c r="C39" s="309" t="s">
+      <c r="A39" s="240"/>
+      <c r="B39" s="247"/>
+      <c r="C39" s="244" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="127" t="s">
@@ -5178,55 +5187,55 @@
       <c r="M39" s="137"/>
     </row>
     <row r="40" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A40" s="296"/>
-      <c r="B40" s="299"/>
-      <c r="C40" s="310"/>
+      <c r="A40" s="240"/>
+      <c r="B40" s="247"/>
+      <c r="C40" s="245"/>
       <c r="D40" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="229"/>
+      <c r="E40" s="308"/>
       <c r="F40" s="74">
         <v>1</v>
       </c>
-      <c r="G40" s="244" t="s">
+      <c r="G40" s="261" t="s">
         <v>363</v>
       </c>
-      <c r="H40" s="245"/>
-      <c r="I40" s="246"/>
+      <c r="H40" s="262"/>
+      <c r="I40" s="263"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="90"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A41" s="296"/>
-      <c r="B41" s="299"/>
-      <c r="C41" s="310"/>
+      <c r="A41" s="240"/>
+      <c r="B41" s="247"/>
+      <c r="C41" s="245"/>
       <c r="D41" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="230"/>
+      <c r="E41" s="309"/>
       <c r="F41" s="74">
         <v>0.66</v>
       </c>
-      <c r="G41" s="244" t="s">
+      <c r="G41" s="261" t="s">
         <v>369</v>
       </c>
-      <c r="H41" s="245"/>
-      <c r="I41" s="246"/>
+      <c r="H41" s="262"/>
+      <c r="I41" s="263"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="90"/>
     </row>
     <row r="42" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A42" s="296"/>
-      <c r="B42" s="299"/>
-      <c r="C42" s="310"/>
+      <c r="A42" s="240"/>
+      <c r="B42" s="247"/>
+      <c r="C42" s="245"/>
       <c r="D42" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="230"/>
+      <c r="E42" s="309"/>
       <c r="F42" s="74">
         <v>0</v>
       </c>
@@ -5241,13 +5250,13 @@
       <c r="M42" s="90"/>
     </row>
     <row r="43" spans="1:13" ht="25.5">
-      <c r="A43" s="296"/>
-      <c r="B43" s="299"/>
-      <c r="C43" s="310"/>
+      <c r="A43" s="240"/>
+      <c r="B43" s="247"/>
+      <c r="C43" s="245"/>
       <c r="D43" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="231"/>
+      <c r="E43" s="310"/>
       <c r="F43" s="190">
         <v>0</v>
       </c>
@@ -5262,9 +5271,9 @@
       <c r="M43" s="90"/>
     </row>
     <row r="44" spans="1:13" ht="38.25">
-      <c r="A44" s="296"/>
-      <c r="B44" s="299"/>
-      <c r="C44" s="309" t="s">
+      <c r="A44" s="240"/>
+      <c r="B44" s="247"/>
+      <c r="C44" s="244" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="139" t="s">
@@ -5288,13 +5297,13 @@
       <c r="M44" s="137"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="296"/>
-      <c r="B45" s="299"/>
-      <c r="C45" s="310"/>
+      <c r="A45" s="240"/>
+      <c r="B45" s="247"/>
+      <c r="C45" s="245"/>
       <c r="D45" s="106" t="s">
         <v>332</v>
       </c>
-      <c r="E45" s="196"/>
+      <c r="E45" s="302"/>
       <c r="F45" s="75">
         <v>1</v>
       </c>
@@ -5309,13 +5318,13 @@
       <c r="M45" s="90"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1">
-      <c r="A46" s="296"/>
-      <c r="B46" s="299"/>
-      <c r="C46" s="310"/>
+      <c r="A46" s="240"/>
+      <c r="B46" s="247"/>
+      <c r="C46" s="245"/>
       <c r="D46" s="106" t="s">
         <v>356</v>
       </c>
-      <c r="E46" s="197"/>
+      <c r="E46" s="303"/>
       <c r="F46" s="74">
         <v>0.66</v>
       </c>
@@ -5330,30 +5339,30 @@
       <c r="M46" s="90"/>
     </row>
     <row r="47" spans="1:13" ht="38.25">
-      <c r="A47" s="296"/>
-      <c r="B47" s="299"/>
-      <c r="C47" s="310"/>
+      <c r="A47" s="240"/>
+      <c r="B47" s="247"/>
+      <c r="C47" s="245"/>
       <c r="D47" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="E47" s="198"/>
+      <c r="E47" s="304"/>
       <c r="F47" s="173"/>
-      <c r="G47" s="250" t="s">
+      <c r="G47" s="224" t="s">
         <v>282</v>
       </c>
-      <c r="H47" s="250"/>
-      <c r="I47" s="251"/>
+      <c r="H47" s="224"/>
+      <c r="I47" s="225"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="90"/>
     </row>
     <row r="48" spans="1:13" ht="51.75" customHeight="1">
-      <c r="A48" s="296"/>
-      <c r="B48" s="294" t="s">
+      <c r="A48" s="240"/>
+      <c r="B48" s="266" t="s">
         <v>285</v>
       </c>
-      <c r="C48" s="309" t="s">
+      <c r="C48" s="244" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="126" t="s">
@@ -5377,13 +5386,13 @@
       <c r="M48" s="137"/>
     </row>
     <row r="49" spans="1:13" ht="25.5">
-      <c r="A49" s="296"/>
-      <c r="B49" s="294"/>
-      <c r="C49" s="310"/>
+      <c r="A49" s="240"/>
+      <c r="B49" s="266"/>
+      <c r="C49" s="245"/>
       <c r="D49" s="106" t="s">
         <v>296</v>
       </c>
-      <c r="E49" s="196"/>
+      <c r="E49" s="302"/>
       <c r="F49" s="74">
         <v>0.75</v>
       </c>
@@ -5398,13 +5407,13 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" ht="38.25">
-      <c r="A50" s="296"/>
-      <c r="B50" s="294"/>
-      <c r="C50" s="310"/>
+      <c r="A50" s="240"/>
+      <c r="B50" s="266"/>
+      <c r="C50" s="245"/>
       <c r="D50" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="E50" s="197"/>
+      <c r="E50" s="303"/>
       <c r="F50" s="74">
         <v>0.75</v>
       </c>
@@ -5419,13 +5428,13 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="296"/>
-      <c r="B51" s="294"/>
-      <c r="C51" s="310"/>
+      <c r="A51" s="240"/>
+      <c r="B51" s="266"/>
+      <c r="C51" s="245"/>
       <c r="D51" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="198"/>
+      <c r="E51" s="304"/>
       <c r="F51" s="74">
         <v>0.75</v>
       </c>
@@ -5440,11 +5449,11 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13" ht="15.75">
-      <c r="A52" s="296"/>
-      <c r="B52" s="313" t="s">
+      <c r="A52" s="240"/>
+      <c r="B52" s="242" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="309" t="s">
+      <c r="C52" s="244" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="126" t="s">
@@ -5468,34 +5477,34 @@
       <c r="M52" s="137"/>
     </row>
     <row r="53" spans="1:13" ht="25.5">
-      <c r="A53" s="296"/>
-      <c r="B53" s="317"/>
-      <c r="C53" s="310"/>
+      <c r="A53" s="240"/>
+      <c r="B53" s="243"/>
+      <c r="C53" s="245"/>
       <c r="D53" s="106" t="s">
         <v>299</v>
       </c>
-      <c r="E53" s="211"/>
+      <c r="E53" s="311"/>
       <c r="F53" s="74">
         <v>1</v>
       </c>
-      <c r="G53" s="244" t="s">
+      <c r="G53" s="261" t="s">
         <v>364</v>
       </c>
-      <c r="H53" s="245"/>
-      <c r="I53" s="246"/>
+      <c r="H53" s="262"/>
+      <c r="I53" s="263"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13" ht="38.25">
-      <c r="A54" s="296"/>
-      <c r="B54" s="317"/>
-      <c r="C54" s="310"/>
+      <c r="A54" s="240"/>
+      <c r="B54" s="243"/>
+      <c r="C54" s="245"/>
       <c r="D54" s="102" t="s">
         <v>300</v>
       </c>
-      <c r="E54" s="212"/>
+      <c r="E54" s="312"/>
       <c r="F54" s="75">
         <v>0.76</v>
       </c>
@@ -5510,13 +5519,13 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" ht="25.5">
-      <c r="A55" s="296"/>
-      <c r="B55" s="317"/>
-      <c r="C55" s="310"/>
+      <c r="A55" s="240"/>
+      <c r="B55" s="243"/>
+      <c r="C55" s="245"/>
       <c r="D55" s="97" t="s">
         <v>301</v>
       </c>
-      <c r="E55" s="213"/>
+      <c r="E55" s="313"/>
       <c r="F55" s="75">
         <v>0.76</v>
       </c>
@@ -5531,9 +5540,9 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13" ht="25.5">
-      <c r="A56" s="296"/>
-      <c r="B56" s="317"/>
-      <c r="C56" s="309" t="s">
+      <c r="A56" s="240"/>
+      <c r="B56" s="243"/>
+      <c r="C56" s="244" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="127" t="s">
@@ -5557,13 +5566,13 @@
       <c r="M56" s="93"/>
     </row>
     <row r="57" spans="1:13" ht="42" customHeight="1">
-      <c r="A57" s="296"/>
-      <c r="B57" s="317"/>
-      <c r="C57" s="310"/>
+      <c r="A57" s="240"/>
+      <c r="B57" s="243"/>
+      <c r="C57" s="245"/>
       <c r="D57" s="97" t="s">
         <v>304</v>
       </c>
-      <c r="E57" s="217"/>
+      <c r="E57" s="314"/>
       <c r="F57" s="75">
         <v>0.2</v>
       </c>
@@ -5578,68 +5587,68 @@
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1">
-      <c r="A58" s="296"/>
-      <c r="B58" s="317"/>
-      <c r="C58" s="310"/>
+      <c r="A58" s="240"/>
+      <c r="B58" s="243"/>
+      <c r="C58" s="245"/>
       <c r="D58" s="97" t="s">
         <v>305</v>
       </c>
-      <c r="E58" s="218"/>
-      <c r="F58" s="331" t="s">
+      <c r="E58" s="315"/>
+      <c r="F58" s="214" t="s">
         <v>350</v>
       </c>
-      <c r="G58" s="332"/>
-      <c r="H58" s="332"/>
-      <c r="I58" s="333"/>
+      <c r="G58" s="215"/>
+      <c r="H58" s="215"/>
+      <c r="I58" s="216"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13" ht="25.5">
-      <c r="A59" s="296"/>
-      <c r="B59" s="317"/>
-      <c r="C59" s="310"/>
+      <c r="A59" s="240"/>
+      <c r="B59" s="243"/>
+      <c r="C59" s="245"/>
       <c r="D59" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="E59" s="218"/>
-      <c r="F59" s="331" t="s">
+      <c r="E59" s="315"/>
+      <c r="F59" s="214" t="s">
         <v>354</v>
       </c>
-      <c r="G59" s="334"/>
-      <c r="H59" s="334"/>
-      <c r="I59" s="335"/>
+      <c r="G59" s="217"/>
+      <c r="H59" s="217"/>
+      <c r="I59" s="218"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A60" s="296"/>
-      <c r="B60" s="317"/>
-      <c r="C60" s="310"/>
+      <c r="A60" s="240"/>
+      <c r="B60" s="243"/>
+      <c r="C60" s="245"/>
       <c r="D60" s="96" t="s">
         <v>303</v>
       </c>
-      <c r="E60" s="219"/>
-      <c r="F60" s="331" t="s">
+      <c r="E60" s="316"/>
+      <c r="F60" s="214" t="s">
         <v>349</v>
       </c>
-      <c r="G60" s="334"/>
-      <c r="H60" s="334"/>
-      <c r="I60" s="335"/>
+      <c r="G60" s="217"/>
+      <c r="H60" s="217"/>
+      <c r="I60" s="218"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:13" ht="38.25">
-      <c r="A61" s="296"/>
-      <c r="B61" s="313" t="s">
+      <c r="A61" s="240"/>
+      <c r="B61" s="242" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="306" t="s">
+      <c r="C61" s="248" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="125" t="s">
@@ -5663,74 +5672,74 @@
       <c r="M61" s="137"/>
     </row>
     <row r="62" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A62" s="296"/>
-      <c r="B62" s="317"/>
-      <c r="C62" s="307"/>
+      <c r="A62" s="240"/>
+      <c r="B62" s="243"/>
+      <c r="C62" s="249"/>
       <c r="D62" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="E62" s="211"/>
+      <c r="E62" s="311"/>
       <c r="F62" s="75">
         <v>1</v>
       </c>
-      <c r="G62" s="241" t="s">
+      <c r="G62" s="219" t="s">
         <v>365</v>
       </c>
-      <c r="H62" s="242"/>
-      <c r="I62" s="243"/>
+      <c r="H62" s="222"/>
+      <c r="I62" s="223"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="296"/>
-      <c r="B63" s="317"/>
-      <c r="C63" s="307"/>
+      <c r="A63" s="240"/>
+      <c r="B63" s="243"/>
+      <c r="C63" s="249"/>
       <c r="D63" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="E63" s="212"/>
+      <c r="E63" s="312"/>
       <c r="F63" s="178">
         <v>1</v>
       </c>
-      <c r="G63" s="271" t="s">
+      <c r="G63" s="196" t="s">
         <v>364</v>
       </c>
-      <c r="H63" s="272"/>
-      <c r="I63" s="273"/>
+      <c r="H63" s="197"/>
+      <c r="I63" s="198"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="296"/>
-      <c r="B64" s="317"/>
-      <c r="C64" s="307"/>
+      <c r="A64" s="240"/>
+      <c r="B64" s="243"/>
+      <c r="C64" s="249"/>
       <c r="D64" s="97" t="s">
         <v>357</v>
       </c>
-      <c r="E64" s="212"/>
+      <c r="E64" s="312"/>
       <c r="F64" s="178">
         <v>1</v>
       </c>
-      <c r="G64" s="277"/>
-      <c r="H64" s="278"/>
-      <c r="I64" s="279"/>
+      <c r="G64" s="202"/>
+      <c r="H64" s="203"/>
+      <c r="I64" s="204"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="296"/>
-      <c r="B65" s="317"/>
-      <c r="C65" s="322"/>
+      <c r="A65" s="240"/>
+      <c r="B65" s="243"/>
+      <c r="C65" s="260"/>
       <c r="D65" s="97" t="s">
         <v>310</v>
       </c>
-      <c r="E65" s="212"/>
+      <c r="E65" s="312"/>
       <c r="F65" s="123">
         <v>0.85</v>
       </c>
@@ -5745,13 +5754,13 @@
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="296"/>
-      <c r="B66" s="317"/>
-      <c r="C66" s="322"/>
+      <c r="A66" s="240"/>
+      <c r="B66" s="243"/>
+      <c r="C66" s="260"/>
       <c r="D66" s="107" t="s">
         <v>311</v>
       </c>
-      <c r="E66" s="212"/>
+      <c r="E66" s="312"/>
       <c r="F66" s="185">
         <v>0.63</v>
       </c>
@@ -5766,13 +5775,13 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1">
-      <c r="A67" s="296"/>
-      <c r="B67" s="317"/>
-      <c r="C67" s="308"/>
+      <c r="A67" s="240"/>
+      <c r="B67" s="243"/>
+      <c r="C67" s="250"/>
       <c r="D67" s="107" t="s">
         <v>312</v>
       </c>
-      <c r="E67" s="213"/>
+      <c r="E67" s="313"/>
       <c r="F67" s="186">
         <v>0.45</v>
       </c>
@@ -5787,9 +5796,9 @@
       <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:13" ht="30" customHeight="1">
-      <c r="A68" s="296"/>
-      <c r="B68" s="317"/>
-      <c r="C68" s="311" t="s">
+      <c r="A68" s="240"/>
+      <c r="B68" s="243"/>
+      <c r="C68" s="270" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="126" t="s">
@@ -5811,68 +5820,68 @@
       <c r="M68" s="137"/>
     </row>
     <row r="69" spans="1:13" ht="25.5">
-      <c r="A69" s="296"/>
-      <c r="B69" s="317"/>
-      <c r="C69" s="312"/>
+      <c r="A69" s="240"/>
+      <c r="B69" s="243"/>
+      <c r="C69" s="271"/>
       <c r="D69" s="96" t="s">
         <v>314</v>
       </c>
-      <c r="E69" s="199"/>
+      <c r="E69" s="305"/>
       <c r="F69" s="75">
         <v>1</v>
       </c>
-      <c r="G69" s="262" t="s">
+      <c r="G69" s="228" t="s">
         <v>362</v>
       </c>
-      <c r="H69" s="263"/>
-      <c r="I69" s="264"/>
+      <c r="H69" s="229"/>
+      <c r="I69" s="230"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13" ht="25.5">
-      <c r="A70" s="296"/>
-      <c r="B70" s="317"/>
-      <c r="C70" s="312"/>
+      <c r="A70" s="240"/>
+      <c r="B70" s="243"/>
+      <c r="C70" s="271"/>
       <c r="D70" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="E70" s="200"/>
+      <c r="E70" s="306"/>
       <c r="F70" s="123">
         <v>1</v>
       </c>
-      <c r="G70" s="265"/>
-      <c r="H70" s="266"/>
-      <c r="I70" s="267"/>
+      <c r="G70" s="231"/>
+      <c r="H70" s="232"/>
+      <c r="I70" s="233"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" ht="25.5">
-      <c r="A71" s="296"/>
-      <c r="B71" s="317"/>
-      <c r="C71" s="312"/>
+      <c r="A71" s="240"/>
+      <c r="B71" s="243"/>
+      <c r="C71" s="271"/>
       <c r="D71" s="97" t="s">
         <v>316</v>
       </c>
-      <c r="E71" s="201"/>
+      <c r="E71" s="307"/>
       <c r="F71" s="123">
         <v>1</v>
       </c>
-      <c r="G71" s="268"/>
-      <c r="H71" s="269"/>
-      <c r="I71" s="270"/>
+      <c r="G71" s="234"/>
+      <c r="H71" s="235"/>
+      <c r="I71" s="236"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13" ht="45" customHeight="1">
-      <c r="A72" s="296"/>
-      <c r="B72" s="317"/>
-      <c r="C72" s="309" t="s">
+      <c r="A72" s="240"/>
+      <c r="B72" s="243"/>
+      <c r="C72" s="244" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="127" t="s">
@@ -5894,72 +5903,72 @@
       <c r="M72" s="137"/>
     </row>
     <row r="73" spans="1:13" ht="30" customHeight="1">
-      <c r="A73" s="296"/>
-      <c r="B73" s="317"/>
-      <c r="C73" s="310"/>
+      <c r="A73" s="240"/>
+      <c r="B73" s="243"/>
+      <c r="C73" s="245"/>
       <c r="D73" s="97" t="s">
         <v>318</v>
       </c>
-      <c r="E73" s="199"/>
+      <c r="E73" s="305"/>
       <c r="F73" s="123">
         <v>1</v>
       </c>
-      <c r="G73" s="262" t="s">
+      <c r="G73" s="228" t="s">
         <v>362</v>
       </c>
-      <c r="H73" s="263"/>
-      <c r="I73" s="264"/>
+      <c r="H73" s="229"/>
+      <c r="I73" s="230"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="296"/>
-      <c r="B74" s="317"/>
-      <c r="C74" s="310"/>
+      <c r="A74" s="240"/>
+      <c r="B74" s="243"/>
+      <c r="C74" s="245"/>
       <c r="D74" s="107" t="s">
         <v>311</v>
       </c>
-      <c r="E74" s="200"/>
+      <c r="E74" s="306"/>
       <c r="F74" s="123">
         <v>1</v>
       </c>
-      <c r="G74" s="265"/>
-      <c r="H74" s="266"/>
-      <c r="I74" s="267"/>
+      <c r="G74" s="231"/>
+      <c r="H74" s="232"/>
+      <c r="I74" s="233"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" ht="25.5">
-      <c r="A75" s="297"/>
-      <c r="B75" s="317"/>
-      <c r="C75" s="310"/>
+      <c r="A75" s="251"/>
+      <c r="B75" s="243"/>
+      <c r="C75" s="245"/>
       <c r="D75" s="97" t="s">
         <v>319</v>
       </c>
-      <c r="E75" s="201"/>
+      <c r="E75" s="307"/>
       <c r="F75" s="123">
         <v>1</v>
       </c>
-      <c r="G75" s="268"/>
-      <c r="H75" s="269"/>
-      <c r="I75" s="270"/>
+      <c r="G75" s="234"/>
+      <c r="H75" s="235"/>
+      <c r="I75" s="236"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1">
-      <c r="A76" s="295" t="s">
+      <c r="A76" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="313" t="s">
+      <c r="B76" s="242" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="309" t="s">
+      <c r="C76" s="244" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="126" t="s">
@@ -5983,13 +5992,13 @@
       <c r="M76" s="137"/>
     </row>
     <row r="77" spans="1:13" ht="25.5">
-      <c r="A77" s="296"/>
-      <c r="B77" s="317"/>
-      <c r="C77" s="310"/>
+      <c r="A77" s="240"/>
+      <c r="B77" s="243"/>
+      <c r="C77" s="245"/>
       <c r="D77" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="E77" s="226"/>
+      <c r="E77" s="317"/>
       <c r="F77" s="75">
         <v>0.75</v>
       </c>
@@ -6004,13 +6013,13 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13" ht="25.5">
-      <c r="A78" s="296"/>
-      <c r="B78" s="317"/>
-      <c r="C78" s="310"/>
+      <c r="A78" s="240"/>
+      <c r="B78" s="243"/>
+      <c r="C78" s="245"/>
       <c r="D78" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="E78" s="227"/>
+      <c r="E78" s="318"/>
       <c r="F78" s="123">
         <v>0.7</v>
       </c>
@@ -6025,13 +6034,13 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A79" s="296"/>
-      <c r="B79" s="317"/>
-      <c r="C79" s="310"/>
+      <c r="A79" s="240"/>
+      <c r="B79" s="243"/>
+      <c r="C79" s="245"/>
       <c r="D79" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="E79" s="228"/>
+      <c r="E79" s="319"/>
       <c r="F79" s="75">
         <v>0.75</v>
       </c>
@@ -6046,9 +6055,9 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:13" ht="15.75">
-      <c r="A80" s="296"/>
-      <c r="B80" s="317"/>
-      <c r="C80" s="309" t="s">
+      <c r="A80" s="240"/>
+      <c r="B80" s="243"/>
+      <c r="C80" s="244" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="126" t="s">
@@ -6072,13 +6081,13 @@
       <c r="M80" s="93"/>
     </row>
     <row r="81" spans="1:13" ht="25.5">
-      <c r="A81" s="296"/>
-      <c r="B81" s="317"/>
-      <c r="C81" s="310"/>
+      <c r="A81" s="240"/>
+      <c r="B81" s="243"/>
+      <c r="C81" s="245"/>
       <c r="D81" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="199"/>
+      <c r="E81" s="305"/>
       <c r="F81" s="75">
         <v>0.75</v>
       </c>
@@ -6093,34 +6102,34 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13" ht="25.5">
-      <c r="A82" s="296"/>
-      <c r="B82" s="317"/>
-      <c r="C82" s="310"/>
+      <c r="A82" s="240"/>
+      <c r="B82" s="243"/>
+      <c r="C82" s="245"/>
       <c r="D82" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="E82" s="200"/>
+      <c r="E82" s="306"/>
       <c r="F82" s="123">
         <v>1</v>
       </c>
-      <c r="G82" s="252" t="s">
+      <c r="G82" s="284" t="s">
         <v>363</v>
       </c>
-      <c r="H82" s="253"/>
-      <c r="I82" s="254"/>
+      <c r="H82" s="285"/>
+      <c r="I82" s="286"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="90"/>
     </row>
     <row r="83" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A83" s="296"/>
-      <c r="B83" s="317"/>
-      <c r="C83" s="310"/>
+      <c r="A83" s="240"/>
+      <c r="B83" s="243"/>
+      <c r="C83" s="245"/>
       <c r="D83" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="E83" s="201"/>
+      <c r="E83" s="307"/>
       <c r="F83" s="123">
         <v>0.6</v>
       </c>
@@ -6135,9 +6144,9 @@
       <c r="M83" s="90"/>
     </row>
     <row r="84" spans="1:13" ht="25.5">
-      <c r="A84" s="296"/>
-      <c r="B84" s="317"/>
-      <c r="C84" s="301" t="s">
+      <c r="A84" s="240"/>
+      <c r="B84" s="243"/>
+      <c r="C84" s="237" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="128" t="s">
@@ -6161,13 +6170,13 @@
       <c r="M84" s="137"/>
     </row>
     <row r="85" spans="1:13" ht="39" customHeight="1">
-      <c r="A85" s="296"/>
-      <c r="B85" s="317"/>
-      <c r="C85" s="302"/>
+      <c r="A85" s="240"/>
+      <c r="B85" s="243"/>
+      <c r="C85" s="238"/>
       <c r="D85" s="109" t="s">
         <v>325</v>
       </c>
-      <c r="E85" s="199"/>
+      <c r="E85" s="305"/>
       <c r="F85" s="75">
         <v>0.97</v>
       </c>
@@ -6182,13 +6191,13 @@
       <c r="M85" s="90"/>
     </row>
     <row r="86" spans="1:13" ht="25.5">
-      <c r="A86" s="296"/>
-      <c r="B86" s="317"/>
-      <c r="C86" s="302"/>
+      <c r="A86" s="240"/>
+      <c r="B86" s="243"/>
+      <c r="C86" s="238"/>
       <c r="D86" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="E86" s="200"/>
+      <c r="E86" s="306"/>
       <c r="F86" s="75">
         <v>0.5</v>
       </c>
@@ -6203,13 +6212,13 @@
       <c r="M86" s="90"/>
     </row>
     <row r="87" spans="1:13" ht="25.5">
-      <c r="A87" s="296"/>
-      <c r="B87" s="317"/>
-      <c r="C87" s="302"/>
+      <c r="A87" s="240"/>
+      <c r="B87" s="243"/>
+      <c r="C87" s="238"/>
       <c r="D87" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="E87" s="200"/>
+      <c r="E87" s="306"/>
       <c r="F87" s="75">
         <v>0.86</v>
       </c>
@@ -6224,53 +6233,53 @@
       <c r="M87" s="90"/>
     </row>
     <row r="88" spans="1:13" ht="38.25">
-      <c r="A88" s="296"/>
-      <c r="B88" s="317"/>
-      <c r="C88" s="302"/>
+      <c r="A88" s="240"/>
+      <c r="B88" s="243"/>
+      <c r="C88" s="238"/>
       <c r="D88" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="E88" s="200"/>
+      <c r="E88" s="306"/>
       <c r="F88" s="75">
         <v>1</v>
       </c>
-      <c r="G88" s="232" t="s">
+      <c r="G88" s="275" t="s">
         <v>363</v>
       </c>
-      <c r="H88" s="255"/>
-      <c r="I88" s="256"/>
+      <c r="H88" s="287"/>
+      <c r="I88" s="288"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="90"/>
     </row>
     <row r="89" spans="1:13" ht="25.5">
-      <c r="A89" s="296"/>
-      <c r="B89" s="317"/>
-      <c r="C89" s="302"/>
+      <c r="A89" s="240"/>
+      <c r="B89" s="243"/>
+      <c r="C89" s="238"/>
       <c r="D89" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="E89" s="201"/>
+      <c r="E89" s="307"/>
       <c r="F89" s="75">
         <v>1</v>
       </c>
-      <c r="G89" s="257"/>
-      <c r="H89" s="258"/>
-      <c r="I89" s="259"/>
+      <c r="G89" s="289"/>
+      <c r="H89" s="290"/>
+      <c r="I89" s="291"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="90"/>
     </row>
     <row r="90" spans="1:13" ht="25.5">
-      <c r="A90" s="295" t="s">
+      <c r="A90" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="313" t="s">
+      <c r="B90" s="242" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="301" t="s">
+      <c r="C90" s="237" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="127" t="s">
@@ -6294,55 +6303,55 @@
       <c r="M90" s="137"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="296"/>
-      <c r="B91" s="317"/>
-      <c r="C91" s="302"/>
+      <c r="A91" s="240"/>
+      <c r="B91" s="243"/>
+      <c r="C91" s="238"/>
       <c r="D91" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="E91" s="199"/>
+      <c r="E91" s="305"/>
       <c r="F91" s="75">
         <v>1</v>
       </c>
-      <c r="G91" s="241" t="s">
+      <c r="G91" s="219" t="s">
         <v>365</v>
       </c>
-      <c r="H91" s="242"/>
-      <c r="I91" s="243"/>
+      <c r="H91" s="222"/>
+      <c r="I91" s="223"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="90"/>
     </row>
     <row r="92" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A92" s="296"/>
-      <c r="B92" s="317"/>
-      <c r="C92" s="302"/>
+      <c r="A92" s="240"/>
+      <c r="B92" s="243"/>
+      <c r="C92" s="238"/>
       <c r="D92" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="E92" s="200"/>
+      <c r="E92" s="306"/>
       <c r="F92" s="75">
         <v>1</v>
       </c>
-      <c r="G92" s="241" t="s">
+      <c r="G92" s="219" t="s">
         <v>366</v>
       </c>
-      <c r="H92" s="336"/>
-      <c r="I92" s="337"/>
+      <c r="H92" s="220"/>
+      <c r="I92" s="221"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="90"/>
     </row>
     <row r="93" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A93" s="296"/>
-      <c r="B93" s="317"/>
-      <c r="C93" s="302"/>
+      <c r="A93" s="240"/>
+      <c r="B93" s="243"/>
+      <c r="C93" s="238"/>
       <c r="D93" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="E93" s="201"/>
+      <c r="E93" s="307"/>
       <c r="F93" s="75">
         <v>0.75</v>
       </c>
@@ -6357,9 +6366,9 @@
       <c r="M93" s="90"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="296"/>
-      <c r="B94" s="317"/>
-      <c r="C94" s="301" t="s">
+      <c r="A94" s="240"/>
+      <c r="B94" s="243"/>
+      <c r="C94" s="237" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="127" t="s">
@@ -6383,55 +6392,55 @@
       <c r="M94" s="137"/>
     </row>
     <row r="95" spans="1:13" ht="25.5">
-      <c r="A95" s="296"/>
-      <c r="B95" s="317"/>
-      <c r="C95" s="302"/>
+      <c r="A95" s="240"/>
+      <c r="B95" s="243"/>
+      <c r="C95" s="238"/>
       <c r="D95" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="E95" s="199"/>
+      <c r="E95" s="305"/>
       <c r="F95" s="75">
         <v>1</v>
       </c>
-      <c r="G95" s="241" t="s">
+      <c r="G95" s="219" t="s">
         <v>365</v>
       </c>
-      <c r="H95" s="242"/>
-      <c r="I95" s="243"/>
+      <c r="H95" s="222"/>
+      <c r="I95" s="223"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="90"/>
     </row>
     <row r="96" spans="1:13" ht="24" customHeight="1">
-      <c r="A96" s="296"/>
-      <c r="B96" s="317"/>
-      <c r="C96" s="302"/>
+      <c r="A96" s="240"/>
+      <c r="B96" s="243"/>
+      <c r="C96" s="238"/>
       <c r="D96" s="107" t="s">
         <v>201</v>
       </c>
-      <c r="E96" s="200"/>
+      <c r="E96" s="306"/>
       <c r="F96" s="75">
         <v>1</v>
       </c>
-      <c r="G96" s="241" t="s">
+      <c r="G96" s="219" t="s">
         <v>364</v>
       </c>
-      <c r="H96" s="242"/>
-      <c r="I96" s="243"/>
+      <c r="H96" s="222"/>
+      <c r="I96" s="223"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="90"/>
     </row>
     <row r="97" spans="1:13" ht="25.5">
-      <c r="A97" s="296"/>
-      <c r="B97" s="317"/>
-      <c r="C97" s="302"/>
+      <c r="A97" s="240"/>
+      <c r="B97" s="243"/>
+      <c r="C97" s="238"/>
       <c r="D97" s="107" t="s">
         <v>202</v>
       </c>
-      <c r="E97" s="201"/>
+      <c r="E97" s="307"/>
       <c r="F97" s="75">
         <v>0</v>
       </c>
@@ -6446,9 +6455,9 @@
       <c r="M97" s="90"/>
     </row>
     <row r="98" spans="1:13" ht="38.25">
-      <c r="A98" s="296"/>
-      <c r="B98" s="317"/>
-      <c r="C98" s="301" t="s">
+      <c r="A98" s="240"/>
+      <c r="B98" s="243"/>
+      <c r="C98" s="237" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="127" t="s">
@@ -6472,55 +6481,55 @@
       <c r="M98" s="137"/>
     </row>
     <row r="99" spans="1:13" ht="25.5">
-      <c r="A99" s="296"/>
-      <c r="B99" s="317"/>
-      <c r="C99" s="302"/>
+      <c r="A99" s="240"/>
+      <c r="B99" s="243"/>
+      <c r="C99" s="238"/>
       <c r="D99" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="E99" s="196"/>
+      <c r="E99" s="302"/>
       <c r="F99" s="75">
         <v>1</v>
       </c>
-      <c r="G99" s="241" t="s">
+      <c r="G99" s="219" t="s">
         <v>367</v>
       </c>
-      <c r="H99" s="242"/>
-      <c r="I99" s="243"/>
+      <c r="H99" s="222"/>
+      <c r="I99" s="223"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="90"/>
     </row>
     <row r="100" spans="1:13" ht="25.5">
-      <c r="A100" s="296"/>
-      <c r="B100" s="317"/>
-      <c r="C100" s="302"/>
+      <c r="A100" s="240"/>
+      <c r="B100" s="243"/>
+      <c r="C100" s="238"/>
       <c r="D100" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="E100" s="197"/>
+      <c r="E100" s="303"/>
       <c r="F100" s="75">
         <v>1</v>
       </c>
-      <c r="G100" s="241" t="s">
+      <c r="G100" s="219" t="s">
         <v>366</v>
       </c>
-      <c r="H100" s="336"/>
-      <c r="I100" s="337"/>
+      <c r="H100" s="220"/>
+      <c r="I100" s="221"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="90"/>
     </row>
     <row r="101" spans="1:13" ht="38.25">
-      <c r="A101" s="296"/>
-      <c r="B101" s="317"/>
-      <c r="C101" s="302"/>
+      <c r="A101" s="240"/>
+      <c r="B101" s="243"/>
+      <c r="C101" s="238"/>
       <c r="D101" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="E101" s="198"/>
+      <c r="E101" s="304"/>
       <c r="F101" s="124">
         <v>0.25</v>
       </c>
@@ -6535,9 +6544,9 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="1:13" ht="51">
-      <c r="A102" s="296"/>
-      <c r="B102" s="317"/>
-      <c r="C102" s="301" t="s">
+      <c r="A102" s="240"/>
+      <c r="B102" s="243"/>
+      <c r="C102" s="237" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="127" t="s">
@@ -6561,34 +6570,34 @@
       <c r="M102" s="137"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="296"/>
-      <c r="B103" s="317"/>
-      <c r="C103" s="302"/>
+      <c r="A103" s="240"/>
+      <c r="B103" s="243"/>
+      <c r="C103" s="238"/>
       <c r="D103" s="107" t="s">
         <v>204</v>
       </c>
-      <c r="E103" s="223"/>
+      <c r="E103" s="320"/>
       <c r="F103" s="74">
         <v>1</v>
       </c>
-      <c r="G103" s="244" t="s">
+      <c r="G103" s="261" t="s">
         <v>364</v>
       </c>
-      <c r="H103" s="245"/>
-      <c r="I103" s="246"/>
+      <c r="H103" s="262"/>
+      <c r="I103" s="263"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="1:13" ht="25.5">
-      <c r="A104" s="296"/>
-      <c r="B104" s="317"/>
-      <c r="C104" s="302"/>
+      <c r="A104" s="240"/>
+      <c r="B104" s="243"/>
+      <c r="C104" s="238"/>
       <c r="D104" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="E104" s="224"/>
+      <c r="E104" s="321"/>
       <c r="F104" s="74">
         <v>0</v>
       </c>
@@ -6603,28 +6612,28 @@
       <c r="M104" s="90"/>
     </row>
     <row r="105" spans="1:13" ht="25.5">
-      <c r="A105" s="296"/>
-      <c r="B105" s="317"/>
-      <c r="C105" s="302"/>
+      <c r="A105" s="240"/>
+      <c r="B105" s="243"/>
+      <c r="C105" s="238"/>
       <c r="D105" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="E105" s="225"/>
+      <c r="E105" s="322"/>
       <c r="F105" s="176"/>
-      <c r="G105" s="289" t="s">
+      <c r="G105" s="301" t="s">
         <v>349</v>
       </c>
-      <c r="H105" s="290"/>
-      <c r="I105" s="291"/>
+      <c r="H105" s="226"/>
+      <c r="I105" s="227"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="90"/>
     </row>
     <row r="106" spans="1:13" ht="25.5">
-      <c r="A106" s="296"/>
-      <c r="B106" s="317"/>
-      <c r="C106" s="309" t="s">
+      <c r="A106" s="240"/>
+      <c r="B106" s="243"/>
+      <c r="C106" s="244" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="126" t="s">
@@ -6648,13 +6657,13 @@
       <c r="M106" s="137"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="296"/>
-      <c r="B107" s="317"/>
-      <c r="C107" s="310"/>
+      <c r="A107" s="240"/>
+      <c r="B107" s="243"/>
+      <c r="C107" s="245"/>
       <c r="D107" s="109" t="s">
         <v>320</v>
       </c>
-      <c r="E107" s="196"/>
+      <c r="E107" s="302"/>
       <c r="F107" s="75">
         <v>0.75</v>
       </c>
@@ -6669,13 +6678,13 @@
       <c r="M107" s="3"/>
     </row>
     <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="296"/>
-      <c r="B108" s="317"/>
-      <c r="C108" s="310"/>
+      <c r="A108" s="240"/>
+      <c r="B108" s="243"/>
+      <c r="C108" s="245"/>
       <c r="D108" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="E108" s="197"/>
+      <c r="E108" s="303"/>
       <c r="F108" s="75">
         <v>0.75</v>
       </c>
@@ -6690,13 +6699,13 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="1:13" ht="25.5">
-      <c r="A109" s="296"/>
-      <c r="B109" s="317"/>
-      <c r="C109" s="310"/>
+      <c r="A109" s="240"/>
+      <c r="B109" s="243"/>
+      <c r="C109" s="245"/>
       <c r="D109" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="E109" s="198"/>
+      <c r="E109" s="304"/>
       <c r="F109" s="75">
         <v>0.75</v>
       </c>
@@ -6711,9 +6720,9 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="1:13" ht="38.25">
-      <c r="A110" s="296"/>
-      <c r="B110" s="317"/>
-      <c r="C110" s="309" t="s">
+      <c r="A110" s="240"/>
+      <c r="B110" s="243"/>
+      <c r="C110" s="244" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="127" t="s">
@@ -6735,72 +6744,72 @@
       <c r="M110" s="137"/>
     </row>
     <row r="111" spans="1:13" ht="38.25">
-      <c r="A111" s="296"/>
-      <c r="B111" s="317"/>
-      <c r="C111" s="310"/>
+      <c r="A111" s="240"/>
+      <c r="B111" s="243"/>
+      <c r="C111" s="245"/>
       <c r="D111" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="E111" s="196"/>
+      <c r="E111" s="302"/>
       <c r="F111" s="75">
         <v>0.1</v>
       </c>
-      <c r="G111" s="280" t="s">
+      <c r="G111" s="292" t="s">
         <v>348</v>
       </c>
-      <c r="H111" s="281"/>
-      <c r="I111" s="282"/>
+      <c r="H111" s="293"/>
+      <c r="I111" s="294"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="57"/>
     </row>
     <row r="112" spans="1:13" ht="38.25">
-      <c r="A112" s="296"/>
-      <c r="B112" s="317"/>
-      <c r="C112" s="310"/>
+      <c r="A112" s="240"/>
+      <c r="B112" s="243"/>
+      <c r="C112" s="245"/>
       <c r="D112" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="E112" s="197"/>
+      <c r="E112" s="303"/>
       <c r="F112" s="75">
         <v>0.1</v>
       </c>
-      <c r="G112" s="283"/>
-      <c r="H112" s="284"/>
-      <c r="I112" s="285"/>
+      <c r="G112" s="295"/>
+      <c r="H112" s="296"/>
+      <c r="I112" s="297"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="1:13" ht="38.25">
-      <c r="A113" s="296"/>
-      <c r="B113" s="317"/>
-      <c r="C113" s="310"/>
+      <c r="A113" s="240"/>
+      <c r="B113" s="243"/>
+      <c r="C113" s="245"/>
       <c r="D113" s="97" t="s">
         <v>210</v>
       </c>
-      <c r="E113" s="198"/>
+      <c r="E113" s="304"/>
       <c r="F113" s="75">
         <v>0.1</v>
       </c>
-      <c r="G113" s="286"/>
-      <c r="H113" s="287"/>
-      <c r="I113" s="288"/>
+      <c r="G113" s="298"/>
+      <c r="H113" s="299"/>
+      <c r="I113" s="300"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="1:13" ht="33" customHeight="1">
-      <c r="A114" s="295" t="s">
+      <c r="A114" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="B114" s="298" t="s">
+      <c r="B114" s="246" t="s">
         <v>358</v>
       </c>
-      <c r="C114" s="309" t="s">
+      <c r="C114" s="244" t="s">
         <v>29</v>
       </c>
       <c r="D114" s="126" t="s">
@@ -6824,13 +6833,13 @@
       <c r="M114" s="137"/>
     </row>
     <row r="115" spans="1:13" ht="25.5">
-      <c r="A115" s="296"/>
-      <c r="B115" s="299"/>
-      <c r="C115" s="310"/>
+      <c r="A115" s="240"/>
+      <c r="B115" s="247"/>
+      <c r="C115" s="245"/>
       <c r="D115" s="109" t="s">
         <v>322</v>
       </c>
-      <c r="E115" s="196"/>
+      <c r="E115" s="302"/>
       <c r="F115" s="74">
         <v>0.74</v>
       </c>
@@ -6845,13 +6854,13 @@
       <c r="M115" s="57"/>
     </row>
     <row r="116" spans="1:13" ht="25.5">
-      <c r="A116" s="296"/>
-      <c r="B116" s="299"/>
-      <c r="C116" s="310"/>
+      <c r="A116" s="240"/>
+      <c r="B116" s="247"/>
+      <c r="C116" s="245"/>
       <c r="D116" s="109" t="s">
         <v>211</v>
       </c>
-      <c r="E116" s="197"/>
+      <c r="E116" s="303"/>
       <c r="F116" s="75">
         <v>0.74</v>
       </c>
@@ -6866,13 +6875,13 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="296"/>
-      <c r="B117" s="299"/>
-      <c r="C117" s="310"/>
+      <c r="A117" s="240"/>
+      <c r="B117" s="247"/>
+      <c r="C117" s="245"/>
       <c r="D117" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="E117" s="198"/>
+      <c r="E117" s="304"/>
       <c r="F117" s="75">
         <v>0.74</v>
       </c>
@@ -6887,9 +6896,9 @@
       <c r="M117" s="90"/>
     </row>
     <row r="118" spans="1:13" ht="15.75">
-      <c r="A118" s="296"/>
-      <c r="B118" s="299"/>
-      <c r="C118" s="301" t="s">
+      <c r="A118" s="240"/>
+      <c r="B118" s="247"/>
+      <c r="C118" s="237" t="s">
         <v>30</v>
       </c>
       <c r="D118" s="126" t="s">
@@ -6913,13 +6922,13 @@
       <c r="M118" s="137"/>
     </row>
     <row r="119" spans="1:13" ht="25.5">
-      <c r="A119" s="296"/>
-      <c r="B119" s="299"/>
-      <c r="C119" s="302"/>
+      <c r="A119" s="240"/>
+      <c r="B119" s="247"/>
+      <c r="C119" s="238"/>
       <c r="D119" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="E119" s="196"/>
+      <c r="E119" s="302"/>
       <c r="F119" s="124">
         <v>0.74</v>
       </c>
@@ -6934,13 +6943,13 @@
       <c r="M119" s="90"/>
     </row>
     <row r="120" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A120" s="296"/>
-      <c r="B120" s="299"/>
-      <c r="C120" s="302"/>
+      <c r="A120" s="240"/>
+      <c r="B120" s="247"/>
+      <c r="C120" s="238"/>
       <c r="D120" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="E120" s="197"/>
+      <c r="E120" s="303"/>
       <c r="F120" s="124">
         <v>0.74</v>
       </c>
@@ -6955,13 +6964,13 @@
       <c r="M120" s="90"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="296"/>
-      <c r="B121" s="299"/>
-      <c r="C121" s="302"/>
+      <c r="A121" s="240"/>
+      <c r="B121" s="247"/>
+      <c r="C121" s="238"/>
       <c r="D121" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="E121" s="197"/>
+      <c r="E121" s="303"/>
       <c r="F121" s="124">
         <v>0.74</v>
       </c>
@@ -6976,13 +6985,13 @@
       <c r="M121" s="90"/>
     </row>
     <row r="122" spans="1:13" ht="38.25">
-      <c r="A122" s="296"/>
-      <c r="B122" s="299"/>
-      <c r="C122" s="302"/>
+      <c r="A122" s="240"/>
+      <c r="B122" s="247"/>
+      <c r="C122" s="238"/>
       <c r="D122" s="181" t="s">
         <v>208</v>
       </c>
-      <c r="E122" s="197"/>
+      <c r="E122" s="303"/>
       <c r="F122" s="124">
         <v>0.7</v>
       </c>
@@ -6997,13 +7006,13 @@
       <c r="M122" s="90"/>
     </row>
     <row r="123" spans="1:13" ht="38.25">
-      <c r="A123" s="296"/>
-      <c r="B123" s="299"/>
-      <c r="C123" s="302"/>
+      <c r="A123" s="240"/>
+      <c r="B123" s="247"/>
+      <c r="C123" s="238"/>
       <c r="D123" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="E123" s="198"/>
+      <c r="E123" s="304"/>
       <c r="F123" s="75">
         <v>0.57999999999999996</v>
       </c>
@@ -7018,9 +7027,9 @@
       <c r="M123" s="90"/>
     </row>
     <row r="124" spans="1:13" ht="38.25">
-      <c r="A124" s="296"/>
-      <c r="B124" s="299"/>
-      <c r="C124" s="306" t="s">
+      <c r="A124" s="240"/>
+      <c r="B124" s="247"/>
+      <c r="C124" s="248" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="126" t="s">
@@ -7044,34 +7053,34 @@
       <c r="M124" s="137"/>
     </row>
     <row r="125" spans="1:13" ht="38.25">
-      <c r="A125" s="296"/>
-      <c r="B125" s="299"/>
-      <c r="C125" s="307"/>
+      <c r="A125" s="240"/>
+      <c r="B125" s="247"/>
+      <c r="C125" s="249"/>
       <c r="D125" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="E125" s="196"/>
+      <c r="E125" s="302"/>
       <c r="F125" s="75">
         <v>1</v>
       </c>
-      <c r="G125" s="241" t="s">
+      <c r="G125" s="219" t="s">
         <v>368</v>
       </c>
-      <c r="H125" s="260"/>
-      <c r="I125" s="261"/>
+      <c r="H125" s="267"/>
+      <c r="I125" s="268"/>
       <c r="J125" s="83"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="90"/>
     </row>
     <row r="126" spans="1:13" ht="25.5">
-      <c r="A126" s="296"/>
-      <c r="B126" s="299"/>
-      <c r="C126" s="307"/>
+      <c r="A126" s="240"/>
+      <c r="B126" s="247"/>
+      <c r="C126" s="249"/>
       <c r="D126" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="E126" s="197"/>
+      <c r="E126" s="303"/>
       <c r="F126" s="124">
         <v>0.75</v>
       </c>
@@ -7086,13 +7095,13 @@
       <c r="M126" s="3"/>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="296"/>
-      <c r="B127" s="299"/>
-      <c r="C127" s="307"/>
+      <c r="A127" s="240"/>
+      <c r="B127" s="247"/>
+      <c r="C127" s="249"/>
       <c r="D127" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="E127" s="197"/>
+      <c r="E127" s="303"/>
       <c r="F127" s="124">
         <v>0.75</v>
       </c>
@@ -7107,13 +7116,13 @@
       <c r="M127" s="3"/>
     </row>
     <row r="128" spans="1:13" ht="38.25">
-      <c r="A128" s="296"/>
-      <c r="B128" s="299"/>
-      <c r="C128" s="308"/>
+      <c r="A128" s="240"/>
+      <c r="B128" s="247"/>
+      <c r="C128" s="250"/>
       <c r="D128" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="E128" s="198"/>
+      <c r="E128" s="304"/>
       <c r="F128" s="74">
         <v>0.75</v>
       </c>
@@ -7128,9 +7137,9 @@
       <c r="M128" s="90"/>
     </row>
     <row r="129" spans="1:13" ht="15.75">
-      <c r="A129" s="296"/>
-      <c r="B129" s="299"/>
-      <c r="C129" s="306" t="s">
+      <c r="A129" s="240"/>
+      <c r="B129" s="247"/>
+      <c r="C129" s="248" t="s">
         <v>32</v>
       </c>
       <c r="D129" s="138" t="s">
@@ -7154,55 +7163,55 @@
       <c r="M129" s="137"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A130" s="296"/>
-      <c r="B130" s="299"/>
-      <c r="C130" s="320"/>
+      <c r="A130" s="240"/>
+      <c r="B130" s="247"/>
+      <c r="C130" s="258"/>
       <c r="D130" s="107" t="s">
         <v>344</v>
       </c>
-      <c r="E130" s="211"/>
+      <c r="E130" s="311"/>
       <c r="F130" s="124">
         <v>1</v>
       </c>
-      <c r="G130" s="247" t="s">
+      <c r="G130" s="205" t="s">
         <v>361</v>
       </c>
-      <c r="H130" s="248"/>
-      <c r="I130" s="249"/>
+      <c r="H130" s="206"/>
+      <c r="I130" s="207"/>
       <c r="J130" s="84"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="90"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="296"/>
-      <c r="B131" s="299"/>
-      <c r="C131" s="320"/>
+      <c r="A131" s="240"/>
+      <c r="B131" s="247"/>
+      <c r="C131" s="258"/>
       <c r="D131" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="E131" s="212"/>
+      <c r="E131" s="312"/>
       <c r="F131" s="75">
         <v>1</v>
       </c>
-      <c r="G131" s="241" t="s">
+      <c r="G131" s="219" t="s">
         <v>366</v>
       </c>
-      <c r="H131" s="242"/>
-      <c r="I131" s="243"/>
+      <c r="H131" s="222"/>
+      <c r="I131" s="223"/>
       <c r="J131" s="84"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="90"/>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="296"/>
-      <c r="B132" s="299"/>
-      <c r="C132" s="320"/>
+      <c r="A132" s="240"/>
+      <c r="B132" s="247"/>
+      <c r="C132" s="258"/>
       <c r="D132" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="E132" s="213"/>
+      <c r="E132" s="313"/>
       <c r="F132" s="75">
         <v>0.1</v>
       </c>
@@ -7217,9 +7226,9 @@
       <c r="M132" s="90"/>
     </row>
     <row r="133" spans="1:13" ht="25.5">
-      <c r="A133" s="296"/>
-      <c r="B133" s="299"/>
-      <c r="C133" s="301" t="s">
+      <c r="A133" s="240"/>
+      <c r="B133" s="247"/>
+      <c r="C133" s="237" t="s">
         <v>33</v>
       </c>
       <c r="D133" s="126" t="s">
@@ -7243,13 +7252,13 @@
       <c r="M133" s="137"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="296"/>
-      <c r="B134" s="299"/>
-      <c r="C134" s="302"/>
+      <c r="A134" s="240"/>
+      <c r="B134" s="247"/>
+      <c r="C134" s="238"/>
       <c r="D134" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="E134" s="211"/>
+      <c r="E134" s="311"/>
       <c r="F134" s="74">
         <v>0.74</v>
       </c>
@@ -7264,13 +7273,13 @@
       <c r="M134" s="90"/>
     </row>
     <row r="135" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A135" s="296"/>
-      <c r="B135" s="299"/>
-      <c r="C135" s="302"/>
+      <c r="A135" s="240"/>
+      <c r="B135" s="247"/>
+      <c r="C135" s="238"/>
       <c r="D135" s="114" t="s">
         <v>360</v>
       </c>
-      <c r="E135" s="212"/>
+      <c r="E135" s="312"/>
       <c r="F135" s="74">
         <v>0.74</v>
       </c>
@@ -7285,13 +7294,13 @@
       <c r="M135" s="90"/>
     </row>
     <row r="136" spans="1:13" ht="25.5">
-      <c r="A136" s="296"/>
-      <c r="B136" s="299"/>
-      <c r="C136" s="302"/>
+      <c r="A136" s="240"/>
+      <c r="B136" s="247"/>
+      <c r="C136" s="238"/>
       <c r="D136" s="114" t="s">
         <v>224</v>
       </c>
-      <c r="E136" s="213"/>
+      <c r="E136" s="313"/>
       <c r="F136" s="74">
         <v>0.74</v>
       </c>
@@ -7306,9 +7315,9 @@
       <c r="M136" s="90"/>
     </row>
     <row r="137" spans="1:13" ht="38.25">
-      <c r="A137" s="296"/>
-      <c r="B137" s="299"/>
-      <c r="C137" s="303" t="s">
+      <c r="A137" s="240"/>
+      <c r="B137" s="247"/>
+      <c r="C137" s="253" t="s">
         <v>34</v>
       </c>
       <c r="D137" s="129" t="s">
@@ -7332,34 +7341,34 @@
       <c r="M137" s="137"/>
     </row>
     <row r="138" spans="1:13" ht="25.5">
-      <c r="A138" s="296"/>
-      <c r="B138" s="299"/>
-      <c r="C138" s="304"/>
+      <c r="A138" s="240"/>
+      <c r="B138" s="247"/>
+      <c r="C138" s="254"/>
       <c r="D138" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="E138" s="211"/>
+      <c r="E138" s="311"/>
       <c r="F138" s="124">
         <v>1</v>
       </c>
-      <c r="G138" s="241" t="s">
+      <c r="G138" s="219" t="s">
         <v>366</v>
       </c>
-      <c r="H138" s="242"/>
-      <c r="I138" s="243"/>
+      <c r="H138" s="222"/>
+      <c r="I138" s="223"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="90"/>
     </row>
     <row r="139" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A139" s="296"/>
-      <c r="B139" s="299"/>
-      <c r="C139" s="304"/>
+      <c r="A139" s="240"/>
+      <c r="B139" s="247"/>
+      <c r="C139" s="254"/>
       <c r="D139" s="109" t="s">
         <v>345</v>
       </c>
-      <c r="E139" s="212"/>
+      <c r="E139" s="312"/>
       <c r="F139" s="124">
         <v>0.6</v>
       </c>
@@ -7374,13 +7383,13 @@
       <c r="M139" s="90"/>
     </row>
     <row r="140" spans="1:13" ht="25.5">
-      <c r="A140" s="296"/>
-      <c r="B140" s="299"/>
-      <c r="C140" s="304"/>
+      <c r="A140" s="240"/>
+      <c r="B140" s="247"/>
+      <c r="C140" s="254"/>
       <c r="D140" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="E140" s="212"/>
+      <c r="E140" s="312"/>
       <c r="F140" s="74">
         <v>0.45</v>
       </c>
@@ -7395,32 +7404,32 @@
       <c r="M140" s="90"/>
     </row>
     <row r="141" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A141" s="296"/>
-      <c r="B141" s="299"/>
-      <c r="C141" s="305"/>
+      <c r="A141" s="240"/>
+      <c r="B141" s="247"/>
+      <c r="C141" s="255"/>
       <c r="D141" s="130" t="s">
         <v>229</v>
       </c>
-      <c r="E141" s="213"/>
+      <c r="E141" s="313"/>
       <c r="F141" s="173"/>
-      <c r="G141" s="250" t="s">
+      <c r="G141" s="224" t="s">
         <v>282</v>
       </c>
-      <c r="H141" s="250"/>
-      <c r="I141" s="251"/>
+      <c r="H141" s="224"/>
+      <c r="I141" s="225"/>
       <c r="J141" s="85"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="90"/>
     </row>
     <row r="142" spans="1:13" ht="51">
-      <c r="A142" s="321" t="s">
+      <c r="A142" s="259" t="s">
         <v>120</v>
       </c>
-      <c r="B142" s="313" t="s">
+      <c r="B142" s="242" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="309" t="s">
+      <c r="C142" s="244" t="s">
         <v>36</v>
       </c>
       <c r="D142" s="126" t="s">
@@ -7442,87 +7451,87 @@
       <c r="M142" s="137"/>
     </row>
     <row r="143" spans="1:13" ht="25.5">
-      <c r="A143" s="321"/>
-      <c r="B143" s="314"/>
-      <c r="C143" s="310"/>
+      <c r="A143" s="259"/>
+      <c r="B143" s="272"/>
+      <c r="C143" s="245"/>
       <c r="D143" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="E143" s="217"/>
+      <c r="E143" s="314"/>
       <c r="F143" s="74">
         <v>0.75</v>
       </c>
-      <c r="G143" s="271" t="s">
+      <c r="G143" s="196" t="s">
         <v>369</v>
       </c>
-      <c r="H143" s="272"/>
-      <c r="I143" s="273"/>
+      <c r="H143" s="197"/>
+      <c r="I143" s="198"/>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="90"/>
     </row>
     <row r="144" spans="1:13" ht="38.25">
-      <c r="A144" s="321"/>
-      <c r="B144" s="314"/>
-      <c r="C144" s="310"/>
+      <c r="A144" s="259"/>
+      <c r="B144" s="272"/>
+      <c r="C144" s="245"/>
       <c r="D144" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="E144" s="218"/>
+      <c r="E144" s="315"/>
       <c r="F144" s="74">
         <v>0.75</v>
       </c>
-      <c r="G144" s="274"/>
-      <c r="H144" s="275"/>
-      <c r="I144" s="276"/>
+      <c r="G144" s="199"/>
+      <c r="H144" s="200"/>
+      <c r="I144" s="201"/>
       <c r="J144" s="85"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="90"/>
     </row>
     <row r="145" spans="1:13" ht="38.25">
-      <c r="A145" s="321"/>
-      <c r="B145" s="314"/>
-      <c r="C145" s="310"/>
+      <c r="A145" s="259"/>
+      <c r="B145" s="272"/>
+      <c r="C145" s="245"/>
       <c r="D145" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="E145" s="218"/>
+      <c r="E145" s="315"/>
       <c r="F145" s="74">
         <v>0.75</v>
       </c>
-      <c r="G145" s="274"/>
-      <c r="H145" s="275"/>
-      <c r="I145" s="276"/>
+      <c r="G145" s="199"/>
+      <c r="H145" s="200"/>
+      <c r="I145" s="201"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
       <c r="M145" s="90"/>
     </row>
     <row r="146" spans="1:13" ht="25.5">
-      <c r="A146" s="321"/>
-      <c r="B146" s="314"/>
-      <c r="C146" s="310"/>
+      <c r="A146" s="259"/>
+      <c r="B146" s="272"/>
+      <c r="C146" s="245"/>
       <c r="D146" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="E146" s="219"/>
+      <c r="E146" s="316"/>
       <c r="F146" s="74">
         <v>0.75</v>
       </c>
-      <c r="G146" s="277"/>
-      <c r="H146" s="278"/>
-      <c r="I146" s="279"/>
+      <c r="G146" s="202"/>
+      <c r="H146" s="203"/>
+      <c r="I146" s="204"/>
       <c r="J146" s="85"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="90"/>
     </row>
     <row r="147" spans="1:13" ht="38.25">
-      <c r="A147" s="321"/>
-      <c r="B147" s="314"/>
-      <c r="C147" s="309" t="s">
+      <c r="A147" s="259"/>
+      <c r="B147" s="272"/>
+      <c r="C147" s="244" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="126" t="s">
@@ -7546,13 +7555,13 @@
       <c r="M147" s="137"/>
     </row>
     <row r="148" spans="1:13" ht="38.25">
-      <c r="A148" s="321"/>
-      <c r="B148" s="314"/>
-      <c r="C148" s="310"/>
+      <c r="A148" s="259"/>
+      <c r="B148" s="272"/>
+      <c r="C148" s="245"/>
       <c r="D148" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="E148" s="196"/>
+      <c r="E148" s="302"/>
       <c r="F148" s="75">
         <v>0.75</v>
       </c>
@@ -7562,7 +7571,7 @@
       <c r="H148" s="75">
         <v>0.08</v>
       </c>
-      <c r="I148" s="349" t="s">
+      <c r="I148" s="194" t="s">
         <v>374</v>
       </c>
       <c r="J148" s="85"/>
@@ -7571,13 +7580,13 @@
       <c r="M148" s="90"/>
     </row>
     <row r="149" spans="1:13" ht="45" customHeight="1">
-      <c r="A149" s="321"/>
-      <c r="B149" s="314"/>
-      <c r="C149" s="310"/>
+      <c r="A149" s="259"/>
+      <c r="B149" s="272"/>
+      <c r="C149" s="245"/>
       <c r="D149" s="111" t="s">
         <v>326</v>
       </c>
-      <c r="E149" s="197"/>
+      <c r="E149" s="303"/>
       <c r="F149" s="75">
         <v>0.75</v>
       </c>
@@ -7587,7 +7596,7 @@
       <c r="H149" s="75">
         <v>0.08</v>
       </c>
-      <c r="I149" s="349" t="s">
+      <c r="I149" s="194" t="s">
         <v>375</v>
       </c>
       <c r="J149" s="85"/>
@@ -7596,13 +7605,13 @@
       <c r="M149" s="90"/>
     </row>
     <row r="150" spans="1:13" ht="63.75">
-      <c r="A150" s="321"/>
-      <c r="B150" s="314"/>
-      <c r="C150" s="310"/>
+      <c r="A150" s="259"/>
+      <c r="B150" s="272"/>
+      <c r="C150" s="245"/>
       <c r="D150" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="E150" s="198"/>
+      <c r="E150" s="304"/>
       <c r="F150" s="75">
         <v>0.75</v>
       </c>
@@ -7621,9 +7630,9 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="1:13" ht="38.25">
-      <c r="A151" s="321"/>
-      <c r="B151" s="314"/>
-      <c r="C151" s="309" t="s">
+      <c r="A151" s="259"/>
+      <c r="B151" s="272"/>
+      <c r="C151" s="244" t="s">
         <v>38</v>
       </c>
       <c r="D151" s="127" t="s">
@@ -7647,13 +7656,13 @@
       <c r="M151" s="137"/>
     </row>
     <row r="152" spans="1:13" ht="38.25">
-      <c r="A152" s="321"/>
-      <c r="B152" s="314"/>
-      <c r="C152" s="310"/>
+      <c r="A152" s="259"/>
+      <c r="B152" s="272"/>
+      <c r="C152" s="245"/>
       <c r="D152" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="E152" s="196"/>
+      <c r="E152" s="302"/>
       <c r="F152" s="75">
         <v>0.75</v>
       </c>
@@ -7672,13 +7681,13 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="1:13" ht="51">
-      <c r="A153" s="321"/>
-      <c r="B153" s="314"/>
-      <c r="C153" s="310"/>
+      <c r="A153" s="259"/>
+      <c r="B153" s="272"/>
+      <c r="C153" s="245"/>
       <c r="D153" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="E153" s="197"/>
+      <c r="E153" s="303"/>
       <c r="F153" s="75">
         <v>0.75</v>
       </c>
@@ -7697,13 +7706,13 @@
       <c r="M153" s="3"/>
     </row>
     <row r="154" spans="1:13" ht="38.25">
-      <c r="A154" s="321"/>
-      <c r="B154" s="314"/>
-      <c r="C154" s="310"/>
+      <c r="A154" s="259"/>
+      <c r="B154" s="272"/>
+      <c r="C154" s="245"/>
       <c r="D154" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="E154" s="198"/>
+      <c r="E154" s="304"/>
       <c r="F154" s="75">
         <v>0.75</v>
       </c>
@@ -7722,9 +7731,9 @@
       <c r="M154" s="3"/>
     </row>
     <row r="155" spans="1:13" ht="51">
-      <c r="A155" s="321"/>
-      <c r="B155" s="314"/>
-      <c r="C155" s="309" t="s">
+      <c r="A155" s="259"/>
+      <c r="B155" s="272"/>
+      <c r="C155" s="244" t="s">
         <v>39</v>
       </c>
       <c r="D155" s="127" t="s">
@@ -7748,72 +7757,84 @@
       <c r="M155" s="137"/>
     </row>
     <row r="156" spans="1:13" ht="51">
-      <c r="A156" s="321"/>
-      <c r="B156" s="314"/>
-      <c r="C156" s="310"/>
+      <c r="A156" s="259"/>
+      <c r="B156" s="272"/>
+      <c r="C156" s="245"/>
       <c r="D156" s="109" t="s">
         <v>237</v>
       </c>
-      <c r="E156" s="196"/>
+      <c r="E156" s="302"/>
       <c r="F156" s="75">
         <v>0.75</v>
       </c>
       <c r="G156" s="75">
         <v>0.08</v>
       </c>
-      <c r="H156" s="75"/>
-      <c r="I156" s="79"/>
+      <c r="H156" s="75">
+        <v>0.08</v>
+      </c>
+      <c r="I156" s="79" t="s">
+        <v>381</v>
+      </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
       <c r="M156" s="3"/>
     </row>
     <row r="157" spans="1:13" ht="38.25">
-      <c r="A157" s="321"/>
-      <c r="B157" s="314"/>
-      <c r="C157" s="310"/>
+      <c r="A157" s="259"/>
+      <c r="B157" s="272"/>
+      <c r="C157" s="245"/>
       <c r="D157" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="E157" s="197"/>
+      <c r="E157" s="303"/>
       <c r="F157" s="75">
         <v>0.75</v>
       </c>
       <c r="G157" s="75">
         <v>0.08</v>
       </c>
-      <c r="H157" s="75"/>
-      <c r="I157" s="79"/>
+      <c r="H157" s="75">
+        <v>0.08</v>
+      </c>
+      <c r="I157" s="79" t="s">
+        <v>382</v>
+      </c>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
       <c r="M157" s="3"/>
     </row>
     <row r="158" spans="1:13" ht="51">
-      <c r="A158" s="321"/>
-      <c r="B158" s="314"/>
-      <c r="C158" s="310"/>
+      <c r="A158" s="259"/>
+      <c r="B158" s="272"/>
+      <c r="C158" s="245"/>
       <c r="D158" s="107" t="s">
         <v>239</v>
       </c>
-      <c r="E158" s="198"/>
+      <c r="E158" s="304"/>
       <c r="F158" s="75">
         <v>0.75</v>
       </c>
       <c r="G158" s="75">
         <v>0.08</v>
       </c>
-      <c r="H158" s="73"/>
-      <c r="I158" s="79"/>
+      <c r="H158" s="75">
+        <v>0.08</v>
+      </c>
+      <c r="I158" s="79" t="s">
+        <v>383</v>
+      </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
       <c r="M158" s="3"/>
     </row>
     <row r="159" spans="1:13" ht="25.5">
-      <c r="A159" s="321"/>
-      <c r="B159" s="314"/>
-      <c r="C159" s="309" t="s">
+      <c r="A159" s="259"/>
+      <c r="B159" s="272"/>
+      <c r="C159" s="244" t="s">
         <v>126</v>
       </c>
       <c r="D159" s="127" t="s">
@@ -7837,13 +7858,13 @@
       <c r="M159" s="137"/>
     </row>
     <row r="160" spans="1:13" ht="38.25">
-      <c r="A160" s="321"/>
-      <c r="B160" s="314"/>
-      <c r="C160" s="310"/>
+      <c r="A160" s="259"/>
+      <c r="B160" s="272"/>
+      <c r="C160" s="245"/>
       <c r="D160" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="E160" s="196"/>
+      <c r="E160" s="302"/>
       <c r="F160" s="75">
         <v>0.75</v>
       </c>
@@ -7862,13 +7883,13 @@
       <c r="M160" s="3"/>
     </row>
     <row r="161" spans="1:18" ht="38.25">
-      <c r="A161" s="321"/>
-      <c r="B161" s="314"/>
-      <c r="C161" s="310"/>
+      <c r="A161" s="259"/>
+      <c r="B161" s="272"/>
+      <c r="C161" s="245"/>
       <c r="D161" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="E161" s="197"/>
+      <c r="E161" s="303"/>
       <c r="F161" s="75">
         <v>0.75</v>
       </c>
@@ -7887,13 +7908,13 @@
       <c r="M161" s="3"/>
     </row>
     <row r="162" spans="1:18" ht="38.25">
-      <c r="A162" s="321"/>
-      <c r="B162" s="314"/>
-      <c r="C162" s="310"/>
+      <c r="A162" s="259"/>
+      <c r="B162" s="272"/>
+      <c r="C162" s="245"/>
       <c r="D162" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="E162" s="198"/>
+      <c r="E162" s="304"/>
       <c r="F162" s="75">
         <v>0.75</v>
       </c>
@@ -7913,8 +7934,8 @@
     </row>
     <row r="163" spans="1:18" ht="25.5">
       <c r="A163" s="69"/>
-      <c r="B163" s="314"/>
-      <c r="C163" s="315" t="s">
+      <c r="B163" s="272"/>
+      <c r="C163" s="273" t="s">
         <v>244</v>
       </c>
       <c r="D163" s="127" t="s">
@@ -7937,20 +7958,20 @@
     </row>
     <row r="164" spans="1:18" ht="38.25">
       <c r="A164" s="69"/>
-      <c r="B164" s="314"/>
-      <c r="C164" s="316"/>
+      <c r="B164" s="272"/>
+      <c r="C164" s="274"/>
       <c r="D164" s="109" t="s">
         <v>246</v>
       </c>
-      <c r="E164" s="199"/>
+      <c r="E164" s="305"/>
       <c r="F164" s="123">
         <v>1</v>
       </c>
-      <c r="G164" s="262" t="s">
+      <c r="G164" s="228" t="s">
         <v>363</v>
       </c>
-      <c r="H164" s="263"/>
-      <c r="I164" s="264"/>
+      <c r="H164" s="229"/>
+      <c r="I164" s="230"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
@@ -7958,18 +7979,18 @@
     </row>
     <row r="165" spans="1:18" ht="38.25">
       <c r="A165" s="69"/>
-      <c r="B165" s="314"/>
-      <c r="C165" s="316"/>
+      <c r="B165" s="272"/>
+      <c r="C165" s="274"/>
       <c r="D165" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="E165" s="200"/>
+      <c r="E165" s="306"/>
       <c r="F165" s="123">
         <v>1</v>
       </c>
-      <c r="G165" s="265"/>
-      <c r="H165" s="266"/>
-      <c r="I165" s="267"/>
+      <c r="G165" s="231"/>
+      <c r="H165" s="232"/>
+      <c r="I165" s="233"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
@@ -7977,31 +7998,31 @@
     </row>
     <row r="166" spans="1:18" ht="25.5">
       <c r="A166" s="69"/>
-      <c r="B166" s="314"/>
-      <c r="C166" s="316"/>
+      <c r="B166" s="272"/>
+      <c r="C166" s="274"/>
       <c r="D166" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="E166" s="201"/>
+      <c r="E166" s="307"/>
       <c r="F166" s="123">
         <v>1</v>
       </c>
-      <c r="G166" s="268"/>
-      <c r="H166" s="269"/>
-      <c r="I166" s="270"/>
+      <c r="G166" s="234"/>
+      <c r="H166" s="235"/>
+      <c r="I166" s="236"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
       <c r="M166" s="3"/>
     </row>
     <row r="167" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A167" s="295" t="s">
+      <c r="A167" s="239" t="s">
         <v>120</v>
       </c>
-      <c r="B167" s="319" t="s">
+      <c r="B167" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="C167" s="309" t="s">
+      <c r="C167" s="244" t="s">
         <v>40</v>
       </c>
       <c r="D167" s="140" t="s">
@@ -8025,34 +8046,34 @@
       <c r="M167" s="137"/>
     </row>
     <row r="168" spans="1:18" ht="42.75">
-      <c r="A168" s="296"/>
-      <c r="B168" s="313"/>
-      <c r="C168" s="310"/>
+      <c r="A168" s="240"/>
+      <c r="B168" s="242"/>
+      <c r="C168" s="245"/>
       <c r="D168" s="141" t="s">
         <v>335</v>
       </c>
-      <c r="E168" s="196"/>
+      <c r="E168" s="302"/>
       <c r="F168" s="74">
         <v>1</v>
       </c>
-      <c r="G168" s="244" t="s">
+      <c r="G168" s="261" t="s">
         <v>367</v>
       </c>
-      <c r="H168" s="245"/>
-      <c r="I168" s="246"/>
+      <c r="H168" s="262"/>
+      <c r="I168" s="263"/>
       <c r="J168" s="167"/>
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
       <c r="M168" s="3"/>
     </row>
     <row r="169" spans="1:18" ht="28.5">
-      <c r="A169" s="296"/>
-      <c r="B169" s="313"/>
-      <c r="C169" s="310"/>
+      <c r="A169" s="240"/>
+      <c r="B169" s="242"/>
+      <c r="C169" s="245"/>
       <c r="D169" s="141" t="s">
         <v>336</v>
       </c>
-      <c r="E169" s="197"/>
+      <c r="E169" s="303"/>
       <c r="F169" s="75">
         <v>0.75</v>
       </c>
@@ -8070,13 +8091,13 @@
       </c>
     </row>
     <row r="170" spans="1:18">
-      <c r="A170" s="296"/>
-      <c r="B170" s="313"/>
-      <c r="C170" s="310"/>
+      <c r="A170" s="240"/>
+      <c r="B170" s="242"/>
+      <c r="C170" s="245"/>
       <c r="D170" s="142" t="s">
         <v>337</v>
       </c>
-      <c r="E170" s="198"/>
+      <c r="E170" s="304"/>
       <c r="F170" s="75">
         <v>0.5</v>
       </c>
@@ -8091,9 +8112,9 @@
       <c r="M170" s="3"/>
     </row>
     <row r="171" spans="1:18" ht="38.25">
-      <c r="A171" s="296"/>
-      <c r="B171" s="313"/>
-      <c r="C171" s="303" t="s">
+      <c r="A171" s="240"/>
+      <c r="B171" s="242"/>
+      <c r="C171" s="253" t="s">
         <v>41</v>
       </c>
       <c r="D171" s="127" t="s">
@@ -8117,77 +8138,77 @@
       <c r="M171" s="137"/>
     </row>
     <row r="172" spans="1:18" ht="25.5">
-      <c r="A172" s="296"/>
-      <c r="B172" s="313"/>
-      <c r="C172" s="304"/>
+      <c r="A172" s="240"/>
+      <c r="B172" s="242"/>
+      <c r="C172" s="254"/>
       <c r="D172" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="E172" s="202"/>
+      <c r="E172" s="332"/>
       <c r="F172" s="75">
         <v>1</v>
       </c>
-      <c r="G172" s="241" t="s">
+      <c r="G172" s="219" t="s">
         <v>365</v>
       </c>
-      <c r="H172" s="242"/>
-      <c r="I172" s="243"/>
+      <c r="H172" s="222"/>
+      <c r="I172" s="223"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
       <c r="M172" s="3"/>
     </row>
     <row r="173" spans="1:18" ht="51">
-      <c r="A173" s="296"/>
-      <c r="B173" s="313"/>
-      <c r="C173" s="304"/>
+      <c r="A173" s="240"/>
+      <c r="B173" s="242"/>
+      <c r="C173" s="254"/>
       <c r="D173" s="70" t="str">
         <f>'[1]PAT 2024'!$C$180</f>
         <v>Investigar y comparar la simbología utilizada en los programas de ordenamiento territorial, turísticos, movilidad y seguridad vial, atlas de riesgo, áreas naturales protegidas y programas de desarrollo urbano en sus diferentes clasificaciones.</v>
       </c>
-      <c r="E173" s="203"/>
+      <c r="E173" s="333"/>
       <c r="F173" s="74">
         <v>1</v>
       </c>
-      <c r="G173" s="244" t="s">
+      <c r="G173" s="261" t="s">
         <v>361</v>
       </c>
-      <c r="H173" s="245"/>
-      <c r="I173" s="246"/>
+      <c r="H173" s="262"/>
+      <c r="I173" s="263"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
       <c r="M173" s="3"/>
     </row>
     <row r="174" spans="1:18">
-      <c r="A174" s="296"/>
-      <c r="B174" s="313"/>
-      <c r="C174" s="304"/>
+      <c r="A174" s="240"/>
+      <c r="B174" s="242"/>
+      <c r="C174" s="254"/>
       <c r="D174" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="E174" s="203"/>
+      <c r="E174" s="333"/>
       <c r="F174" s="124">
         <v>1</v>
       </c>
-      <c r="G174" s="247" t="s">
+      <c r="G174" s="205" t="s">
         <v>364</v>
       </c>
-      <c r="H174" s="248"/>
-      <c r="I174" s="249"/>
+      <c r="H174" s="206"/>
+      <c r="I174" s="207"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
       <c r="M174" s="3"/>
     </row>
     <row r="175" spans="1:18" ht="38.25">
-      <c r="A175" s="296"/>
-      <c r="B175" s="313"/>
-      <c r="C175" s="305"/>
+      <c r="A175" s="240"/>
+      <c r="B175" s="242"/>
+      <c r="C175" s="255"/>
       <c r="D175" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="E175" s="204"/>
+      <c r="E175" s="334"/>
       <c r="F175" s="74">
         <v>0</v>
       </c>
@@ -8202,9 +8223,9 @@
       <c r="M175" s="3"/>
     </row>
     <row r="176" spans="1:18" ht="42" customHeight="1">
-      <c r="A176" s="296"/>
-      <c r="B176" s="313"/>
-      <c r="C176" s="309" t="s">
+      <c r="A176" s="240"/>
+      <c r="B176" s="242"/>
+      <c r="C176" s="244" t="s">
         <v>42</v>
       </c>
       <c r="D176" s="127" t="s">
@@ -8228,13 +8249,13 @@
       <c r="M176" s="137"/>
     </row>
     <row r="177" spans="1:13" ht="25.5">
-      <c r="A177" s="296"/>
-      <c r="B177" s="313"/>
-      <c r="C177" s="310"/>
+      <c r="A177" s="240"/>
+      <c r="B177" s="242"/>
+      <c r="C177" s="245"/>
       <c r="D177" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="E177" s="205"/>
+      <c r="E177" s="335"/>
       <c r="F177" s="75">
         <v>0.75</v>
       </c>
@@ -8249,13 +8270,13 @@
       <c r="M177" s="3"/>
     </row>
     <row r="178" spans="1:13" ht="38.25">
-      <c r="A178" s="296"/>
-      <c r="B178" s="313"/>
-      <c r="C178" s="310"/>
+      <c r="A178" s="240"/>
+      <c r="B178" s="242"/>
+      <c r="C178" s="245"/>
       <c r="D178" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="E178" s="206"/>
+      <c r="E178" s="336"/>
       <c r="F178" s="75">
         <v>0.75</v>
       </c>
@@ -8270,28 +8291,28 @@
       <c r="M178" s="3"/>
     </row>
     <row r="179" spans="1:13" ht="38.25">
-      <c r="A179" s="296"/>
-      <c r="B179" s="313"/>
-      <c r="C179" s="310"/>
+      <c r="A179" s="240"/>
+      <c r="B179" s="242"/>
+      <c r="C179" s="245"/>
       <c r="D179" s="107" t="s">
         <v>256</v>
       </c>
-      <c r="E179" s="207"/>
+      <c r="E179" s="337"/>
       <c r="F179" s="174"/>
-      <c r="G179" s="334" t="s">
+      <c r="G179" s="217" t="s">
         <v>282</v>
       </c>
-      <c r="H179" s="334"/>
-      <c r="I179" s="335"/>
+      <c r="H179" s="217"/>
+      <c r="I179" s="218"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
       <c r="M179" s="3"/>
     </row>
     <row r="180" spans="1:13" ht="38.25">
-      <c r="A180" s="296"/>
-      <c r="B180" s="313"/>
-      <c r="C180" s="301" t="s">
+      <c r="A180" s="240"/>
+      <c r="B180" s="242"/>
+      <c r="C180" s="237" t="s">
         <v>43</v>
       </c>
       <c r="D180" s="127" t="s">
@@ -8315,34 +8336,34 @@
       <c r="M180" s="137"/>
     </row>
     <row r="181" spans="1:13" ht="51">
-      <c r="A181" s="296"/>
-      <c r="B181" s="313"/>
-      <c r="C181" s="302"/>
+      <c r="A181" s="240"/>
+      <c r="B181" s="242"/>
+      <c r="C181" s="238"/>
       <c r="D181" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="E181" s="208"/>
+      <c r="E181" s="323"/>
       <c r="F181" s="75">
         <v>1</v>
       </c>
-      <c r="G181" s="241" t="s">
+      <c r="G181" s="219" t="s">
         <v>367</v>
       </c>
-      <c r="H181" s="242"/>
-      <c r="I181" s="243"/>
+      <c r="H181" s="222"/>
+      <c r="I181" s="223"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
       <c r="M181" s="3"/>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="296"/>
-      <c r="B182" s="313"/>
-      <c r="C182" s="302"/>
+      <c r="A182" s="240"/>
+      <c r="B182" s="242"/>
+      <c r="C182" s="238"/>
       <c r="D182" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="E182" s="209"/>
+      <c r="E182" s="324"/>
       <c r="F182" s="166">
         <v>0.8</v>
       </c>
@@ -8357,32 +8378,32 @@
       <c r="M182" s="3"/>
     </row>
     <row r="183" spans="1:13" ht="25.5">
-      <c r="A183" s="297"/>
-      <c r="B183" s="313"/>
-      <c r="C183" s="302"/>
+      <c r="A183" s="251"/>
+      <c r="B183" s="242"/>
+      <c r="C183" s="238"/>
       <c r="D183" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="E183" s="210"/>
+      <c r="E183" s="325"/>
       <c r="F183" s="177"/>
-      <c r="G183" s="290" t="s">
+      <c r="G183" s="226" t="s">
         <v>282</v>
       </c>
-      <c r="H183" s="290"/>
-      <c r="I183" s="291"/>
+      <c r="H183" s="226"/>
+      <c r="I183" s="227"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
       <c r="M183" s="3"/>
     </row>
     <row r="184" spans="1:13" ht="25.5">
-      <c r="A184" s="295" t="s">
+      <c r="A184" s="239" t="s">
         <v>120</v>
       </c>
-      <c r="B184" s="298" t="s">
+      <c r="B184" s="246" t="s">
         <v>127</v>
       </c>
-      <c r="C184" s="301" t="s">
+      <c r="C184" s="237" t="s">
         <v>44</v>
       </c>
       <c r="D184" s="127" t="s">
@@ -8406,13 +8427,13 @@
       <c r="M184" s="137"/>
     </row>
     <row r="185" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A185" s="296"/>
-      <c r="B185" s="299"/>
-      <c r="C185" s="302"/>
+      <c r="A185" s="240"/>
+      <c r="B185" s="247"/>
+      <c r="C185" s="238"/>
       <c r="D185" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="E185" s="211"/>
+      <c r="E185" s="311"/>
       <c r="F185" s="75">
         <v>0.75</v>
       </c>
@@ -8427,13 +8448,13 @@
       <c r="M185" s="3"/>
     </row>
     <row r="186" spans="1:13" ht="25.5">
-      <c r="A186" s="296"/>
-      <c r="B186" s="299"/>
-      <c r="C186" s="302"/>
+      <c r="A186" s="240"/>
+      <c r="B186" s="247"/>
+      <c r="C186" s="238"/>
       <c r="D186" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="E186" s="212"/>
+      <c r="E186" s="312"/>
       <c r="F186" s="75">
         <v>0.75</v>
       </c>
@@ -8448,28 +8469,28 @@
       <c r="M186" s="3"/>
     </row>
     <row r="187" spans="1:13" ht="25.5">
-      <c r="A187" s="296"/>
-      <c r="B187" s="299"/>
-      <c r="C187" s="302"/>
+      <c r="A187" s="240"/>
+      <c r="B187" s="247"/>
+      <c r="C187" s="238"/>
       <c r="D187" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="E187" s="213"/>
+      <c r="E187" s="313"/>
       <c r="F187" s="174"/>
-      <c r="G187" s="334" t="s">
+      <c r="G187" s="217" t="s">
         <v>282</v>
       </c>
-      <c r="H187" s="334"/>
-      <c r="I187" s="335"/>
+      <c r="H187" s="217"/>
+      <c r="I187" s="218"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
       <c r="L187" s="5"/>
       <c r="M187" s="3"/>
     </row>
     <row r="188" spans="1:13" ht="38.25">
-      <c r="A188" s="296"/>
-      <c r="B188" s="299"/>
-      <c r="C188" s="303" t="s">
+      <c r="A188" s="240"/>
+      <c r="B188" s="247"/>
+      <c r="C188" s="253" t="s">
         <v>45</v>
       </c>
       <c r="D188" s="131" t="s">
@@ -8493,76 +8514,76 @@
       <c r="M188" s="137"/>
     </row>
     <row r="189" spans="1:13" ht="25.5">
-      <c r="A189" s="296"/>
-      <c r="B189" s="299"/>
-      <c r="C189" s="304"/>
+      <c r="A189" s="240"/>
+      <c r="B189" s="247"/>
+      <c r="C189" s="254"/>
       <c r="D189" s="97" t="s">
         <v>328</v>
       </c>
-      <c r="E189" s="214"/>
+      <c r="E189" s="338"/>
       <c r="F189" s="75">
         <v>1</v>
       </c>
-      <c r="G189" s="241" t="s">
+      <c r="G189" s="219" t="s">
         <v>368</v>
       </c>
-      <c r="H189" s="260"/>
-      <c r="I189" s="261"/>
+      <c r="H189" s="267"/>
+      <c r="I189" s="268"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
       <c r="L189" s="5"/>
       <c r="M189" s="3"/>
     </row>
     <row r="190" spans="1:13" ht="25.5">
-      <c r="A190" s="296"/>
-      <c r="B190" s="299"/>
-      <c r="C190" s="304"/>
+      <c r="A190" s="240"/>
+      <c r="B190" s="247"/>
+      <c r="C190" s="254"/>
       <c r="D190" s="111" t="s">
         <v>266</v>
       </c>
-      <c r="E190" s="215"/>
+      <c r="E190" s="339"/>
       <c r="F190" s="75">
         <v>1</v>
       </c>
-      <c r="G190" s="241" t="s">
+      <c r="G190" s="219" t="s">
         <v>367</v>
       </c>
-      <c r="H190" s="242"/>
-      <c r="I190" s="243"/>
+      <c r="H190" s="222"/>
+      <c r="I190" s="223"/>
       <c r="J190" s="80"/>
       <c r="K190" s="5"/>
       <c r="L190" s="5"/>
       <c r="M190" s="3"/>
     </row>
     <row r="191" spans="1:13" ht="25.5">
-      <c r="A191" s="296"/>
-      <c r="B191" s="299"/>
-      <c r="C191" s="304"/>
+      <c r="A191" s="240"/>
+      <c r="B191" s="247"/>
+      <c r="C191" s="254"/>
       <c r="D191" s="97" t="s">
         <v>329</v>
       </c>
-      <c r="E191" s="215"/>
+      <c r="E191" s="339"/>
       <c r="F191" s="75">
         <v>1</v>
       </c>
-      <c r="G191" s="241" t="s">
+      <c r="G191" s="219" t="s">
         <v>363</v>
       </c>
-      <c r="H191" s="242"/>
-      <c r="I191" s="243"/>
+      <c r="H191" s="222"/>
+      <c r="I191" s="223"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
       <c r="M191" s="3"/>
     </row>
     <row r="192" spans="1:13" ht="48">
-      <c r="A192" s="296"/>
-      <c r="B192" s="299"/>
-      <c r="C192" s="305"/>
+      <c r="A192" s="240"/>
+      <c r="B192" s="247"/>
+      <c r="C192" s="255"/>
       <c r="D192" s="107" t="s">
         <v>268</v>
       </c>
-      <c r="E192" s="216"/>
+      <c r="E192" s="340"/>
       <c r="F192" s="75">
         <v>0.66</v>
       </c>
@@ -8572,7 +8593,7 @@
       <c r="H192" s="75">
         <v>0.11</v>
       </c>
-      <c r="I192" s="350" t="s">
+      <c r="I192" s="195" t="s">
         <v>380</v>
       </c>
       <c r="J192" s="5"/>
@@ -8581,9 +8602,9 @@
       <c r="M192" s="3"/>
     </row>
     <row r="193" spans="1:16" ht="25.5">
-      <c r="A193" s="296"/>
-      <c r="B193" s="299"/>
-      <c r="C193" s="301" t="s">
+      <c r="A193" s="240"/>
+      <c r="B193" s="247"/>
+      <c r="C193" s="237" t="s">
         <v>46</v>
       </c>
       <c r="D193" s="131" t="s">
@@ -8607,55 +8628,55 @@
       <c r="M193" s="137"/>
     </row>
     <row r="194" spans="1:16" ht="25.5">
-      <c r="A194" s="296"/>
-      <c r="B194" s="299"/>
-      <c r="C194" s="302"/>
+      <c r="A194" s="240"/>
+      <c r="B194" s="247"/>
+      <c r="C194" s="238"/>
       <c r="D194" s="97" t="s">
         <v>270</v>
       </c>
-      <c r="E194" s="208"/>
+      <c r="E194" s="323"/>
       <c r="F194" s="75">
         <v>1</v>
       </c>
-      <c r="G194" s="241" t="s">
+      <c r="G194" s="219" t="s">
         <v>361</v>
       </c>
-      <c r="H194" s="242"/>
-      <c r="I194" s="243"/>
+      <c r="H194" s="222"/>
+      <c r="I194" s="223"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
       <c r="M194" s="3"/>
     </row>
     <row r="195" spans="1:16" ht="25.5">
-      <c r="A195" s="296"/>
-      <c r="B195" s="299"/>
-      <c r="C195" s="302"/>
+      <c r="A195" s="240"/>
+      <c r="B195" s="247"/>
+      <c r="C195" s="238"/>
       <c r="D195" s="97" t="s">
         <v>271</v>
       </c>
-      <c r="E195" s="209"/>
+      <c r="E195" s="324"/>
       <c r="F195" s="124">
         <v>1</v>
       </c>
-      <c r="G195" s="247" t="s">
+      <c r="G195" s="205" t="s">
         <v>366</v>
       </c>
-      <c r="H195" s="248"/>
-      <c r="I195" s="249"/>
+      <c r="H195" s="206"/>
+      <c r="I195" s="207"/>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
       <c r="L195" s="5"/>
       <c r="M195" s="3"/>
     </row>
     <row r="196" spans="1:16" ht="25.5">
-      <c r="A196" s="296"/>
-      <c r="B196" s="299"/>
-      <c r="C196" s="302"/>
+      <c r="A196" s="240"/>
+      <c r="B196" s="247"/>
+      <c r="C196" s="238"/>
       <c r="D196" s="97" t="s">
         <v>272</v>
       </c>
-      <c r="E196" s="210"/>
+      <c r="E196" s="325"/>
       <c r="F196" s="166">
         <v>0.25</v>
       </c>
@@ -8670,9 +8691,9 @@
       <c r="M196" s="3"/>
     </row>
     <row r="197" spans="1:16" ht="25.5">
-      <c r="A197" s="296"/>
-      <c r="B197" s="299"/>
-      <c r="C197" s="306" t="s">
+      <c r="A197" s="240"/>
+      <c r="B197" s="247"/>
+      <c r="C197" s="248" t="s">
         <v>47</v>
       </c>
       <c r="D197" s="127" t="s">
@@ -8696,34 +8717,34 @@
       <c r="M197" s="137"/>
     </row>
     <row r="198" spans="1:16" ht="38.25">
-      <c r="A198" s="296"/>
-      <c r="B198" s="299"/>
-      <c r="C198" s="307"/>
+      <c r="A198" s="240"/>
+      <c r="B198" s="247"/>
+      <c r="C198" s="249"/>
       <c r="D198" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="E198" s="208"/>
+      <c r="E198" s="323"/>
       <c r="F198" s="75">
         <v>1</v>
       </c>
-      <c r="G198" s="241" t="s">
+      <c r="G198" s="219" t="s">
         <v>365</v>
       </c>
-      <c r="H198" s="242"/>
-      <c r="I198" s="243"/>
+      <c r="H198" s="222"/>
+      <c r="I198" s="223"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
       <c r="M198" s="3"/>
     </row>
     <row r="199" spans="1:16" ht="48">
-      <c r="A199" s="296"/>
-      <c r="B199" s="299"/>
-      <c r="C199" s="307"/>
+      <c r="A199" s="240"/>
+      <c r="B199" s="247"/>
+      <c r="C199" s="249"/>
       <c r="D199" s="107" t="s">
         <v>275</v>
       </c>
-      <c r="E199" s="209"/>
+      <c r="E199" s="324"/>
       <c r="F199" s="75">
         <v>0.75</v>
       </c>
@@ -8733,7 +8754,7 @@
       <c r="H199" s="75">
         <v>0.08</v>
       </c>
-      <c r="I199" s="348" t="s">
+      <c r="I199" s="193" t="s">
         <v>378</v>
       </c>
       <c r="J199" s="5"/>
@@ -8742,13 +8763,13 @@
       <c r="M199" s="3"/>
     </row>
     <row r="200" spans="1:16" ht="51">
-      <c r="A200" s="296"/>
-      <c r="B200" s="299"/>
-      <c r="C200" s="307"/>
+      <c r="A200" s="240"/>
+      <c r="B200" s="247"/>
+      <c r="C200" s="249"/>
       <c r="D200" s="97" t="s">
         <v>276</v>
       </c>
-      <c r="E200" s="209"/>
+      <c r="E200" s="324"/>
       <c r="F200" s="75">
         <v>0.9</v>
       </c>
@@ -8763,13 +8784,13 @@
       <c r="M200" s="3"/>
     </row>
     <row r="201" spans="1:16" ht="38.25">
-      <c r="A201" s="296"/>
-      <c r="B201" s="299"/>
-      <c r="C201" s="308"/>
+      <c r="A201" s="240"/>
+      <c r="B201" s="247"/>
+      <c r="C201" s="250"/>
       <c r="D201" s="112" t="s">
         <v>277</v>
       </c>
-      <c r="E201" s="210"/>
+      <c r="E201" s="325"/>
       <c r="F201" s="75">
         <v>0.66</v>
       </c>
@@ -8784,9 +8805,9 @@
       <c r="M201" s="3"/>
     </row>
     <row r="202" spans="1:16" ht="30" customHeight="1">
-      <c r="A202" s="296"/>
-      <c r="B202" s="299"/>
-      <c r="C202" s="309" t="s">
+      <c r="A202" s="240"/>
+      <c r="B202" s="247"/>
+      <c r="C202" s="244" t="s">
         <v>48</v>
       </c>
       <c r="D202" s="125" t="s">
@@ -8810,55 +8831,55 @@
       <c r="M202" s="137"/>
     </row>
     <row r="203" spans="1:16" ht="51">
-      <c r="A203" s="296"/>
-      <c r="B203" s="299"/>
-      <c r="C203" s="310"/>
+      <c r="A203" s="240"/>
+      <c r="B203" s="247"/>
+      <c r="C203" s="245"/>
       <c r="D203" s="112" t="s">
         <v>279</v>
       </c>
-      <c r="E203" s="220"/>
+      <c r="E203" s="326"/>
       <c r="F203" s="75">
         <v>1</v>
       </c>
-      <c r="G203" s="241" t="s">
+      <c r="G203" s="219" t="s">
         <v>365</v>
       </c>
-      <c r="H203" s="242"/>
-      <c r="I203" s="243"/>
+      <c r="H203" s="222"/>
+      <c r="I203" s="223"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
       <c r="M203" s="3"/>
     </row>
     <row r="204" spans="1:16" ht="51">
-      <c r="A204" s="296"/>
-      <c r="B204" s="299"/>
-      <c r="C204" s="310"/>
+      <c r="A204" s="240"/>
+      <c r="B204" s="247"/>
+      <c r="C204" s="245"/>
       <c r="D204" s="111" t="s">
         <v>280</v>
       </c>
-      <c r="E204" s="221"/>
+      <c r="E204" s="327"/>
       <c r="F204" s="75">
         <v>1</v>
       </c>
-      <c r="G204" s="241" t="s">
+      <c r="G204" s="219" t="s">
         <v>363</v>
       </c>
-      <c r="H204" s="242"/>
-      <c r="I204" s="243"/>
+      <c r="H204" s="222"/>
+      <c r="I204" s="223"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
       <c r="M204" s="3"/>
     </row>
     <row r="205" spans="1:16" ht="51">
-      <c r="A205" s="297"/>
-      <c r="B205" s="300"/>
-      <c r="C205" s="310"/>
+      <c r="A205" s="251"/>
+      <c r="B205" s="269"/>
+      <c r="C205" s="245"/>
       <c r="D205" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="E205" s="222"/>
+      <c r="E205" s="328"/>
       <c r="F205" s="75">
         <v>0.66</v>
       </c>
@@ -8873,9 +8894,9 @@
       <c r="M205" s="3"/>
     </row>
     <row r="206" spans="1:16" ht="72.75" customHeight="1">
-      <c r="A206" s="293"/>
-      <c r="B206" s="293"/>
-      <c r="C206" s="292" t="s">
+      <c r="A206" s="265"/>
+      <c r="B206" s="265"/>
+      <c r="C206" s="264" t="s">
         <v>338</v>
       </c>
       <c r="D206" s="147" t="s">
@@ -8902,21 +8923,21 @@
       <c r="P206" s="6"/>
     </row>
     <row r="207" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A207" s="293"/>
-      <c r="B207" s="293"/>
-      <c r="C207" s="292"/>
+      <c r="A207" s="265"/>
+      <c r="B207" s="265"/>
+      <c r="C207" s="264"/>
       <c r="D207" s="175" t="s">
         <v>340</v>
       </c>
-      <c r="E207" s="193"/>
+      <c r="E207" s="329"/>
       <c r="F207" s="143">
         <v>1</v>
       </c>
-      <c r="G207" s="325" t="s">
+      <c r="G207" s="208" t="s">
         <v>362</v>
       </c>
-      <c r="H207" s="326"/>
-      <c r="I207" s="327"/>
+      <c r="H207" s="209"/>
+      <c r="I207" s="210"/>
       <c r="J207" s="82"/>
       <c r="K207" s="143"/>
       <c r="L207" s="143"/>
@@ -8926,32 +8947,32 @@
       <c r="P207" s="6"/>
     </row>
     <row r="208" spans="1:16">
-      <c r="A208" s="293"/>
-      <c r="B208" s="293"/>
-      <c r="C208" s="292"/>
+      <c r="A208" s="265"/>
+      <c r="B208" s="265"/>
+      <c r="C208" s="264"/>
       <c r="D208" s="175" t="s">
         <v>341</v>
       </c>
-      <c r="E208" s="194"/>
+      <c r="E208" s="330"/>
       <c r="F208" s="155">
         <v>1</v>
       </c>
-      <c r="G208" s="328"/>
-      <c r="H208" s="329"/>
-      <c r="I208" s="330"/>
+      <c r="G208" s="211"/>
+      <c r="H208" s="212"/>
+      <c r="I208" s="213"/>
       <c r="J208" s="149"/>
       <c r="K208" s="150"/>
       <c r="L208" s="150"/>
       <c r="M208" s="78"/>
     </row>
     <row r="209" spans="1:13" ht="25.5">
-      <c r="A209" s="293"/>
-      <c r="B209" s="293"/>
-      <c r="C209" s="292"/>
+      <c r="A209" s="265"/>
+      <c r="B209" s="265"/>
+      <c r="C209" s="264"/>
       <c r="D209" s="175" t="s">
         <v>342</v>
       </c>
-      <c r="E209" s="195"/>
+      <c r="E209" s="331"/>
       <c r="F209" s="150">
         <v>0.25</v>
       </c>
@@ -9085,29 +9106,124 @@
     <protectedRange sqref="D123" name="Rango1_3_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="165">
-    <mergeCell ref="G143:I146"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="G207:I208"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="G195:I195"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G198:I198"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="G183:I183"/>
-    <mergeCell ref="G187:I187"/>
-    <mergeCell ref="G164:I166"/>
-    <mergeCell ref="G191:I191"/>
-    <mergeCell ref="G63:I64"/>
-    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="E207:E209"/>
+    <mergeCell ref="E160:E162"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="E168:E170"/>
+    <mergeCell ref="E172:E175"/>
+    <mergeCell ref="E177:E179"/>
+    <mergeCell ref="E181:E183"/>
+    <mergeCell ref="E185:E187"/>
+    <mergeCell ref="E189:E192"/>
+    <mergeCell ref="E194:E196"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="E143:E146"/>
+    <mergeCell ref="E148:E150"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="E203:E205"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="E125:E128"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="G12:I14"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="G194:I194"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G168:I168"/>
+    <mergeCell ref="G181:I181"/>
+    <mergeCell ref="G190:I190"/>
+    <mergeCell ref="G172:I172"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G88:I89"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G69:I71"/>
+    <mergeCell ref="G73:I75"/>
+    <mergeCell ref="G35:I38"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G111:I113"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="G189:I189"/>
+    <mergeCell ref="A184:A205"/>
+    <mergeCell ref="B184:B205"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C188:C192"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="C197:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="C147:C150"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="B142:B166"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A167:A183"/>
+    <mergeCell ref="B167:B183"/>
+    <mergeCell ref="C167:C170"/>
+    <mergeCell ref="C171:C175"/>
+    <mergeCell ref="C176:C179"/>
+    <mergeCell ref="C180:C183"/>
+    <mergeCell ref="A114:A141"/>
+    <mergeCell ref="B114:B141"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="A142:A162"/>
+    <mergeCell ref="B61:B75"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="C155:C158"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="A90:A113"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="A76:A89"/>
+    <mergeCell ref="G103:I103"/>
     <mergeCell ref="C94:C97"/>
     <mergeCell ref="C98:C101"/>
     <mergeCell ref="A7:A25"/>
@@ -9132,124 +9248,29 @@
     <mergeCell ref="B76:B89"/>
     <mergeCell ref="C110:C113"/>
     <mergeCell ref="C76:C79"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A167:A183"/>
-    <mergeCell ref="B167:B183"/>
-    <mergeCell ref="C167:C170"/>
-    <mergeCell ref="C171:C175"/>
-    <mergeCell ref="C176:C179"/>
-    <mergeCell ref="C180:C183"/>
-    <mergeCell ref="A114:A141"/>
-    <mergeCell ref="B114:B141"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="A142:A162"/>
-    <mergeCell ref="B61:B75"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="C155:C158"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="A90:A113"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="A76:A89"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="G189:I189"/>
-    <mergeCell ref="A184:A205"/>
-    <mergeCell ref="B184:B205"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C188:C192"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="C197:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="C147:C150"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="B142:B166"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="G12:I14"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="G194:I194"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G168:I168"/>
-    <mergeCell ref="G181:I181"/>
-    <mergeCell ref="G190:I190"/>
-    <mergeCell ref="G172:I172"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="G88:I89"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G69:I71"/>
-    <mergeCell ref="G73:I75"/>
-    <mergeCell ref="G35:I38"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G111:I113"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="E62:E67"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="E119:E123"/>
-    <mergeCell ref="E125:E128"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="E143:E146"/>
-    <mergeCell ref="E148:E150"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="E203:E205"/>
-    <mergeCell ref="E207:E209"/>
-    <mergeCell ref="E160:E162"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="E168:E170"/>
-    <mergeCell ref="E172:E175"/>
-    <mergeCell ref="E177:E179"/>
-    <mergeCell ref="E181:E183"/>
-    <mergeCell ref="E185:E187"/>
-    <mergeCell ref="E189:E192"/>
-    <mergeCell ref="E194:E196"/>
+    <mergeCell ref="G143:I146"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="G207:I208"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="G195:I195"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G198:I198"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="G183:I183"/>
+    <mergeCell ref="G187:I187"/>
+    <mergeCell ref="G164:I166"/>
+    <mergeCell ref="G191:I191"/>
+    <mergeCell ref="G63:I64"/>
+    <mergeCell ref="G96:I96"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E8 E39 E44:E45 E48:E49 E61:E62 E68:E69 E72:E73 E76:E77 E80:E81 E84:E85 E90:E91 E94:E95 E98:E99 E102 E106:E107 E133:E134 E142 E147:E148 E176:E177 E180:E181 E184:E185 E188:E189 E193:E194 E197:E198 E202:E203 E11:E12 E15:E16 E20:E21 E26:E27 E30:E31 E34 E52:E53 E56 E110:E111 E114:E115 E118:E119 E124:E125 E129:E130 E137:E138 E151:E152 E155:E156 E159:E160 E163:E164 E167:E168 E171">
     <cfRule type="iconSet" priority="9">
@@ -9325,36 +9346,36 @@
     </row>
     <row r="4" spans="1:33" ht="4.5" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C5" s="344" t="s">
+      <c r="C5" s="342" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="345"/>
-      <c r="E5" s="345"/>
-      <c r="F5" s="345"/>
-      <c r="G5" s="345"/>
-      <c r="H5" s="345"/>
-      <c r="I5" s="345"/>
-      <c r="J5" s="345"/>
-      <c r="K5" s="345"/>
-      <c r="L5" s="345"/>
-      <c r="M5" s="345"/>
-      <c r="N5" s="345"/>
-      <c r="O5" s="346"/>
-      <c r="Q5" s="344" t="s">
+      <c r="D5" s="343"/>
+      <c r="E5" s="343"/>
+      <c r="F5" s="343"/>
+      <c r="G5" s="343"/>
+      <c r="H5" s="343"/>
+      <c r="I5" s="343"/>
+      <c r="J5" s="343"/>
+      <c r="K5" s="343"/>
+      <c r="L5" s="343"/>
+      <c r="M5" s="343"/>
+      <c r="N5" s="343"/>
+      <c r="O5" s="344"/>
+      <c r="Q5" s="342" t="s">
         <v>144</v>
       </c>
-      <c r="R5" s="345"/>
-      <c r="S5" s="345"/>
-      <c r="T5" s="345"/>
-      <c r="U5" s="345"/>
-      <c r="V5" s="345"/>
-      <c r="W5" s="345"/>
-      <c r="X5" s="345"/>
-      <c r="Y5" s="345"/>
-      <c r="Z5" s="345"/>
-      <c r="AA5" s="345"/>
-      <c r="AB5" s="345"/>
-      <c r="AC5" s="346"/>
+      <c r="R5" s="343"/>
+      <c r="S5" s="343"/>
+      <c r="T5" s="343"/>
+      <c r="U5" s="343"/>
+      <c r="V5" s="343"/>
+      <c r="W5" s="343"/>
+      <c r="X5" s="343"/>
+      <c r="Y5" s="343"/>
+      <c r="Z5" s="343"/>
+      <c r="AA5" s="343"/>
+      <c r="AB5" s="343"/>
+      <c r="AC5" s="344"/>
       <c r="AF5"/>
     </row>
     <row r="6" spans="1:33" ht="18" customHeight="1">
@@ -9548,7 +9569,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="31.5" customHeight="1">
-      <c r="A8" s="311" t="s">
+      <c r="A8" s="270" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="58" t="s">
@@ -9619,7 +9640,7 @@
       <c r="AG8" s="46"/>
     </row>
     <row r="9" spans="1:33" ht="25.5">
-      <c r="A9" s="312"/>
+      <c r="A9" s="271"/>
       <c r="B9" s="96" t="s">
         <v>155</v>
       </c>
@@ -9688,7 +9709,7 @@
       <c r="AG9" s="46"/>
     </row>
     <row r="10" spans="1:33" ht="25.5">
-      <c r="A10" s="312"/>
+      <c r="A10" s="271"/>
       <c r="B10" s="97" t="s">
         <v>156</v>
       </c>
@@ -9755,7 +9776,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="38.25">
-      <c r="A11" s="312"/>
+      <c r="A11" s="271"/>
       <c r="B11" s="96" t="s">
         <v>157</v>
       </c>
@@ -9823,7 +9844,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="63.75" customHeight="1">
-      <c r="A12" s="311" t="s">
+      <c r="A12" s="270" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -9893,7 +9914,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="38.25">
-      <c r="A13" s="312"/>
+      <c r="A13" s="271"/>
       <c r="B13" s="98" t="s">
         <v>158</v>
       </c>
@@ -9961,7 +9982,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="28.5" customHeight="1">
-      <c r="A14" s="312"/>
+      <c r="A14" s="271"/>
       <c r="B14" s="98" t="s">
         <v>159</v>
       </c>
@@ -10029,7 +10050,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" ht="25.5">
-      <c r="A15" s="312"/>
+      <c r="A15" s="271"/>
       <c r="B15" s="97" t="s">
         <v>160</v>
       </c>
@@ -10097,7 +10118,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="25.5">
-      <c r="A16" s="311" t="s">
+      <c r="A16" s="270" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -10166,7 +10187,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="25.5">
-      <c r="A17" s="312"/>
+      <c r="A17" s="271"/>
       <c r="B17" s="98" t="s">
         <v>75</v>
       </c>
@@ -10233,7 +10254,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="38.25">
-      <c r="A18" s="312"/>
+      <c r="A18" s="271"/>
       <c r="B18" s="98" t="s">
         <v>76</v>
       </c>
@@ -10300,7 +10321,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="38.25">
-      <c r="A19" s="312"/>
+      <c r="A19" s="271"/>
       <c r="B19" s="98" t="s">
         <v>77</v>
       </c>
@@ -10367,7 +10388,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="25.5">
-      <c r="A20" s="312"/>
+      <c r="A20" s="271"/>
       <c r="B20" s="98" t="s">
         <v>78</v>
       </c>
@@ -10434,7 +10455,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" ht="38.25">
-      <c r="A21" s="338" t="s">
+      <c r="A21" s="345" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="59" t="s">
@@ -10502,7 +10523,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="38.25">
-      <c r="A22" s="339"/>
+      <c r="A22" s="346"/>
       <c r="B22" s="99" t="s">
         <v>80</v>
       </c>
@@ -10569,7 +10590,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="51">
-      <c r="A23" s="339"/>
+      <c r="A23" s="346"/>
       <c r="B23" s="99" t="s">
         <v>81</v>
       </c>
@@ -10636,7 +10657,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" ht="76.5">
-      <c r="A24" s="339"/>
+      <c r="A24" s="346"/>
       <c r="B24" s="99" t="s">
         <v>82</v>
       </c>
@@ -10703,7 +10724,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" ht="38.25">
-      <c r="A25" s="339"/>
+      <c r="A25" s="346"/>
       <c r="B25" s="99" t="s">
         <v>83</v>
       </c>
@@ -10770,7 +10791,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" ht="38.25">
-      <c r="A26" s="323"/>
+      <c r="A26" s="241"/>
       <c r="B26" s="95" t="s">
         <v>162</v>
       </c>
@@ -10837,7 +10858,7 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="25.5">
-      <c r="A27" s="311" t="s">
+      <c r="A27" s="270" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="64" t="s">
@@ -10907,7 +10928,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" ht="51">
-      <c r="A28" s="340"/>
+      <c r="A28" s="347"/>
       <c r="B28" s="100" t="s">
         <v>85</v>
       </c>
@@ -10975,7 +10996,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" ht="25.5">
-      <c r="A29" s="340"/>
+      <c r="A29" s="347"/>
       <c r="B29" s="100" t="s">
         <v>164</v>
       </c>
@@ -11043,7 +11064,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" ht="25.5">
-      <c r="A30" s="340"/>
+      <c r="A30" s="347"/>
       <c r="B30" s="100" t="s">
         <v>165</v>
       </c>
@@ -11111,7 +11132,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" ht="38.25">
-      <c r="A31" s="311" t="s">
+      <c r="A31" s="270" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="63" t="s">
@@ -11179,7 +11200,7 @@
       </c>
     </row>
     <row r="32" spans="1:32" ht="25.5">
-      <c r="A32" s="312"/>
+      <c r="A32" s="271"/>
       <c r="B32" s="102" t="s">
         <v>167</v>
       </c>
@@ -11245,7 +11266,7 @@
       </c>
     </row>
     <row r="33" spans="1:32" ht="25.5">
-      <c r="A33" s="312"/>
+      <c r="A33" s="271"/>
       <c r="B33" s="102" t="s">
         <v>86</v>
       </c>
@@ -11311,7 +11332,7 @@
       </c>
     </row>
     <row r="34" spans="1:32" ht="63.75">
-      <c r="A34" s="312"/>
+      <c r="A34" s="271"/>
       <c r="B34" s="102" t="s">
         <v>168</v>
       </c>
@@ -11377,7 +11398,7 @@
       </c>
     </row>
     <row r="35" spans="1:32" ht="89.25">
-      <c r="A35" s="338" t="s">
+      <c r="A35" s="345" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="64" t="s">
@@ -11445,7 +11466,7 @@
       </c>
     </row>
     <row r="36" spans="1:32" ht="39">
-      <c r="A36" s="339"/>
+      <c r="A36" s="346"/>
       <c r="B36" s="103" t="s">
         <v>88</v>
       </c>
@@ -11511,7 +11532,7 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="51">
-      <c r="A37" s="339"/>
+      <c r="A37" s="346"/>
       <c r="B37" s="104" t="s">
         <v>89</v>
       </c>
@@ -11577,7 +11598,7 @@
       </c>
     </row>
     <row r="38" spans="1:32" ht="63.75">
-      <c r="A38" s="339"/>
+      <c r="A38" s="346"/>
       <c r="B38" s="104" t="s">
         <v>55</v>
       </c>
@@ -11643,7 +11664,7 @@
       </c>
     </row>
     <row r="39" spans="1:32" ht="39">
-      <c r="A39" s="323"/>
+      <c r="A39" s="241"/>
       <c r="B39" s="103" t="s">
         <v>90</v>
       </c>
@@ -11709,7 +11730,7 @@
       </c>
     </row>
     <row r="40" spans="1:32" ht="25.5">
-      <c r="A40" s="311" t="s">
+      <c r="A40" s="270" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="64" t="s">
@@ -11777,7 +11798,7 @@
       </c>
     </row>
     <row r="41" spans="1:32" ht="38.25">
-      <c r="A41" s="312"/>
+      <c r="A41" s="271"/>
       <c r="B41" s="100" t="s">
         <v>56</v>
       </c>
@@ -11843,7 +11864,7 @@
       </c>
     </row>
     <row r="42" spans="1:32" ht="38.25">
-      <c r="A42" s="312"/>
+      <c r="A42" s="271"/>
       <c r="B42" s="100" t="s">
         <v>92</v>
       </c>
@@ -11909,7 +11930,7 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="25.5">
-      <c r="A43" s="312"/>
+      <c r="A43" s="271"/>
       <c r="B43" s="100" t="s">
         <v>57</v>
       </c>
@@ -11977,7 +11998,7 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="25.5">
-      <c r="A44" s="312"/>
+      <c r="A44" s="271"/>
       <c r="B44" s="100" t="s">
         <v>93</v>
       </c>
@@ -12045,7 +12066,7 @@
       </c>
     </row>
     <row r="45" spans="1:32" ht="25.5">
-      <c r="A45" s="311" t="s">
+      <c r="A45" s="270" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="64" t="s">
@@ -12114,7 +12135,7 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="51.75">
-      <c r="A46" s="312"/>
+      <c r="A46" s="271"/>
       <c r="B46" s="103" t="s">
         <v>170</v>
       </c>
@@ -12182,7 +12203,7 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="51.75">
-      <c r="A47" s="312"/>
+      <c r="A47" s="271"/>
       <c r="B47" s="103" t="s">
         <v>171</v>
       </c>
@@ -12250,7 +12271,7 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="51">
-      <c r="A48" s="312"/>
+      <c r="A48" s="271"/>
       <c r="B48" s="104" t="s">
         <v>172</v>
       </c>
@@ -12318,7 +12339,7 @@
       </c>
     </row>
     <row r="49" spans="1:32" ht="38.25">
-      <c r="A49" s="311" t="s">
+      <c r="A49" s="270" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="59" t="s">
@@ -12386,7 +12407,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="38.25">
-      <c r="A50" s="312"/>
+      <c r="A50" s="271"/>
       <c r="B50" s="106" t="s">
         <v>94</v>
       </c>
@@ -12452,7 +12473,7 @@
       </c>
     </row>
     <row r="51" spans="1:32" ht="51">
-      <c r="A51" s="312"/>
+      <c r="A51" s="271"/>
       <c r="B51" s="106" t="s">
         <v>95</v>
       </c>
@@ -12518,7 +12539,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" ht="38.25">
-      <c r="A52" s="312"/>
+      <c r="A52" s="271"/>
       <c r="B52" s="106" t="s">
         <v>68</v>
       </c>
@@ -12584,7 +12605,7 @@
       </c>
     </row>
     <row r="53" spans="1:32">
-      <c r="A53" s="311" t="s">
+      <c r="A53" s="270" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="59" t="s">
@@ -12653,7 +12674,7 @@
       </c>
     </row>
     <row r="54" spans="1:32" ht="51">
-      <c r="A54" s="312"/>
+      <c r="A54" s="271"/>
       <c r="B54" s="105" t="s">
         <v>173</v>
       </c>
@@ -12721,7 +12742,7 @@
       </c>
     </row>
     <row r="55" spans="1:32" ht="63.75">
-      <c r="A55" s="312"/>
+      <c r="A55" s="271"/>
       <c r="B55" s="101" t="s">
         <v>174</v>
       </c>
@@ -12787,7 +12808,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" ht="25.5">
-      <c r="A56" s="312"/>
+      <c r="A56" s="271"/>
       <c r="B56" s="95" t="s">
         <v>175</v>
       </c>
@@ -12853,7 +12874,7 @@
       </c>
     </row>
     <row r="57" spans="1:32" ht="51">
-      <c r="A57" s="311" t="s">
+      <c r="A57" s="270" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="64" t="s">
@@ -12941,7 +12962,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="51">
-      <c r="A58" s="312"/>
+      <c r="A58" s="271"/>
       <c r="B58" s="97" t="s">
         <v>177</v>
       </c>
@@ -13020,7 +13041,7 @@
       </c>
     </row>
     <row r="59" spans="1:32" ht="38.25">
-      <c r="A59" s="312"/>
+      <c r="A59" s="271"/>
       <c r="B59" s="97" t="s">
         <v>178</v>
       </c>
@@ -13100,7 +13121,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="38.25">
-      <c r="A60" s="312"/>
+      <c r="A60" s="271"/>
       <c r="B60" s="97" t="s">
         <v>97</v>
       </c>
@@ -13180,7 +13201,7 @@
       </c>
     </row>
     <row r="61" spans="1:32" ht="51">
-      <c r="A61" s="312"/>
+      <c r="A61" s="271"/>
       <c r="B61" s="96" t="s">
         <v>179</v>
       </c>
@@ -13260,7 +13281,7 @@
       </c>
     </row>
     <row r="62" spans="1:32" ht="51">
-      <c r="A62" s="338" t="s">
+      <c r="A62" s="345" t="s">
         <v>15</v>
       </c>
       <c r="B62" s="65" t="s">
@@ -13328,7 +13349,7 @@
       </c>
     </row>
     <row r="63" spans="1:32" ht="38.25">
-      <c r="A63" s="339"/>
+      <c r="A63" s="346"/>
       <c r="B63" s="97" t="s">
         <v>182</v>
       </c>
@@ -13394,7 +13415,7 @@
       </c>
     </row>
     <row r="64" spans="1:32" ht="25.5">
-      <c r="A64" s="339"/>
+      <c r="A64" s="346"/>
       <c r="B64" s="107" t="s">
         <v>183</v>
       </c>
@@ -13460,7 +13481,7 @@
       </c>
     </row>
     <row r="65" spans="1:32" ht="25.5">
-      <c r="A65" s="339"/>
+      <c r="A65" s="346"/>
       <c r="B65" s="97" t="s">
         <v>184</v>
       </c>
@@ -13526,7 +13547,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" ht="38.25">
-      <c r="A66" s="347"/>
+      <c r="A66" s="348"/>
       <c r="B66" s="97" t="s">
         <v>185</v>
       </c>
@@ -13594,7 +13615,7 @@
       </c>
     </row>
     <row r="67" spans="1:32" ht="25.5">
-      <c r="A67" s="347"/>
+      <c r="A67" s="348"/>
       <c r="B67" s="107" t="s">
         <v>186</v>
       </c>
@@ -13662,7 +13683,7 @@
       </c>
     </row>
     <row r="68" spans="1:32" ht="25.5">
-      <c r="A68" s="323"/>
+      <c r="A68" s="241"/>
       <c r="B68" s="107" t="s">
         <v>187</v>
       </c>
@@ -13730,7 +13751,7 @@
       </c>
     </row>
     <row r="69" spans="1:32" ht="25.5">
-      <c r="A69" s="311" t="s">
+      <c r="A69" s="270" t="s">
         <v>16</v>
       </c>
       <c r="B69" s="59" t="s">
@@ -13799,7 +13820,7 @@
       </c>
     </row>
     <row r="70" spans="1:32" ht="38.25">
-      <c r="A70" s="312"/>
+      <c r="A70" s="271"/>
       <c r="B70" s="108" t="s">
         <v>188</v>
       </c>
@@ -13867,7 +13888,7 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="25.5">
-      <c r="A71" s="312"/>
+      <c r="A71" s="271"/>
       <c r="B71" s="97" t="s">
         <v>99</v>
       </c>
@@ -13935,7 +13956,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" ht="25.5">
-      <c r="A72" s="312"/>
+      <c r="A72" s="271"/>
       <c r="B72" s="97" t="s">
         <v>189</v>
       </c>
@@ -14003,7 +14024,7 @@
       </c>
     </row>
     <row r="73" spans="1:32" ht="63.75">
-      <c r="A73" s="311" t="s">
+      <c r="A73" s="270" t="s">
         <v>17</v>
       </c>
       <c r="B73" s="64" t="s">
@@ -14071,7 +14092,7 @@
       </c>
     </row>
     <row r="74" spans="1:32" ht="38.25">
-      <c r="A74" s="312"/>
+      <c r="A74" s="271"/>
       <c r="B74" s="97" t="s">
         <v>191</v>
       </c>
@@ -14137,7 +14158,7 @@
       </c>
     </row>
     <row r="75" spans="1:32" ht="25.5">
-      <c r="A75" s="312"/>
+      <c r="A75" s="271"/>
       <c r="B75" s="107" t="s">
         <v>186</v>
       </c>
@@ -14203,7 +14224,7 @@
       </c>
     </row>
     <row r="76" spans="1:32" ht="38.25">
-      <c r="A76" s="312"/>
+      <c r="A76" s="271"/>
       <c r="B76" s="97" t="s">
         <v>192</v>
       </c>
@@ -14269,7 +14290,7 @@
       </c>
     </row>
     <row r="77" spans="1:32" ht="25.5">
-      <c r="A77" s="311" t="s">
+      <c r="A77" s="270" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="59" t="s">
@@ -14338,7 +14359,7 @@
       </c>
     </row>
     <row r="78" spans="1:32" ht="51">
-      <c r="A78" s="312"/>
+      <c r="A78" s="271"/>
       <c r="B78" s="109" t="s">
         <v>193</v>
       </c>
@@ -14404,7 +14425,7 @@
       </c>
     </row>
     <row r="79" spans="1:32" ht="38.25">
-      <c r="A79" s="312"/>
+      <c r="A79" s="271"/>
       <c r="B79" s="109" t="s">
         <v>103</v>
       </c>
@@ -14471,7 +14492,7 @@
       </c>
     </row>
     <row r="80" spans="1:32" ht="25.5">
-      <c r="A80" s="312"/>
+      <c r="A80" s="271"/>
       <c r="B80" s="109" t="s">
         <v>104</v>
       </c>
@@ -14539,7 +14560,7 @@
       </c>
     </row>
     <row r="81" spans="1:32" ht="25.5">
-      <c r="A81" s="311" t="s">
+      <c r="A81" s="270" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="59" t="s">
@@ -14607,7 +14628,7 @@
       </c>
     </row>
     <row r="82" spans="1:32" ht="38.25">
-      <c r="A82" s="312"/>
+      <c r="A82" s="271"/>
       <c r="B82" s="109" t="s">
         <v>59</v>
       </c>
@@ -14673,7 +14694,7 @@
       </c>
     </row>
     <row r="83" spans="1:32" ht="38.25">
-      <c r="A83" s="312"/>
+      <c r="A83" s="271"/>
       <c r="B83" s="109" t="s">
         <v>106</v>
       </c>
@@ -14740,7 +14761,7 @@
       </c>
     </row>
     <row r="84" spans="1:32" ht="25.5">
-      <c r="A84" s="312"/>
+      <c r="A84" s="271"/>
       <c r="B84" s="109" t="s">
         <v>107</v>
       </c>
@@ -14808,7 +14829,7 @@
       </c>
     </row>
     <row r="85" spans="1:32" ht="38.25">
-      <c r="A85" s="311" t="s">
+      <c r="A85" s="270" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="66" t="s">
@@ -14877,7 +14898,7 @@
       </c>
     </row>
     <row r="86" spans="1:32" ht="51">
-      <c r="A86" s="312"/>
+      <c r="A86" s="271"/>
       <c r="B86" s="109" t="s">
         <v>108</v>
       </c>
@@ -14942,8 +14963,8 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="38.25">
-      <c r="A87" s="312"/>
+    <row r="87" spans="1:32" ht="25.5">
+      <c r="A87" s="271"/>
       <c r="B87" s="109" t="s">
         <v>195</v>
       </c>
@@ -15009,7 +15030,7 @@
       </c>
     </row>
     <row r="88" spans="1:32" ht="51">
-      <c r="A88" s="312"/>
+      <c r="A88" s="271"/>
       <c r="B88" s="110" t="s">
         <v>196</v>
       </c>
@@ -15075,7 +15096,7 @@
       </c>
     </row>
     <row r="89" spans="1:32" ht="51">
-      <c r="A89" s="312"/>
+      <c r="A89" s="271"/>
       <c r="B89" s="98" t="s">
         <v>58</v>
       </c>
@@ -15140,8 +15161,8 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="51">
-      <c r="A90" s="312"/>
+    <row r="90" spans="1:32" ht="38.25">
+      <c r="A90" s="271"/>
       <c r="B90" s="110" t="s">
         <v>197</v>
       </c>
@@ -15207,7 +15228,7 @@
       </c>
     </row>
     <row r="91" spans="1:32" ht="38.25">
-      <c r="A91" s="311" t="s">
+      <c r="A91" s="270" t="s">
         <v>21</v>
       </c>
       <c r="B91" s="64" t="s">
@@ -15275,7 +15296,7 @@
       </c>
     </row>
     <row r="92" spans="1:32">
-      <c r="A92" s="312"/>
+      <c r="A92" s="271"/>
       <c r="B92" s="107" t="s">
         <v>110</v>
       </c>
@@ -15341,7 +15362,7 @@
       </c>
     </row>
     <row r="93" spans="1:32" ht="25.5">
-      <c r="A93" s="312"/>
+      <c r="A93" s="271"/>
       <c r="B93" s="107" t="s">
         <v>198</v>
       </c>
@@ -15407,7 +15428,7 @@
       </c>
     </row>
     <row r="94" spans="1:32" ht="38.25">
-      <c r="A94" s="312"/>
+      <c r="A94" s="271"/>
       <c r="B94" s="107" t="s">
         <v>60</v>
       </c>
@@ -15473,7 +15494,7 @@
       </c>
     </row>
     <row r="95" spans="1:32" ht="38.25">
-      <c r="A95" s="311" t="s">
+      <c r="A95" s="270" t="s">
         <v>22</v>
       </c>
       <c r="B95" s="64" t="s">
@@ -15541,7 +15562,7 @@
       </c>
     </row>
     <row r="96" spans="1:32" ht="38.25">
-      <c r="A96" s="312"/>
+      <c r="A96" s="271"/>
       <c r="B96" s="107" t="s">
         <v>200</v>
       </c>
@@ -15607,7 +15628,7 @@
       </c>
     </row>
     <row r="97" spans="1:32" ht="38.25">
-      <c r="A97" s="312"/>
+      <c r="A97" s="271"/>
       <c r="B97" s="107" t="s">
         <v>201</v>
       </c>
@@ -15673,7 +15694,7 @@
       </c>
     </row>
     <row r="98" spans="1:32" ht="38.25">
-      <c r="A98" s="312"/>
+      <c r="A98" s="271"/>
       <c r="B98" s="107" t="s">
         <v>202</v>
       </c>
@@ -15739,7 +15760,7 @@
       </c>
     </row>
     <row r="99" spans="1:32" ht="51">
-      <c r="A99" s="311" t="s">
+      <c r="A99" s="270" t="s">
         <v>23</v>
       </c>
       <c r="B99" s="64" t="s">
@@ -15808,7 +15829,7 @@
       </c>
     </row>
     <row r="100" spans="1:32" ht="38.25">
-      <c r="A100" s="312"/>
+      <c r="A100" s="271"/>
       <c r="B100" s="107" t="s">
         <v>61</v>
       </c>
@@ -15876,7 +15897,7 @@
       </c>
     </row>
     <row r="101" spans="1:32" ht="38.25">
-      <c r="A101" s="312"/>
+      <c r="A101" s="271"/>
       <c r="B101" s="107" t="s">
         <v>62</v>
       </c>
@@ -15943,8 +15964,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="102" spans="1:32" ht="63.75">
-      <c r="A102" s="312"/>
+    <row r="102" spans="1:32" ht="51">
+      <c r="A102" s="271"/>
       <c r="B102" s="107" t="s">
         <v>63</v>
       </c>
@@ -16011,8 +16032,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="76.5">
-      <c r="A103" s="311" t="s">
+    <row r="103" spans="1:32" ht="63.75">
+      <c r="A103" s="270" t="s">
         <v>25</v>
       </c>
       <c r="B103" s="64" t="s">
@@ -16082,7 +16103,7 @@
       </c>
     </row>
     <row r="104" spans="1:32" ht="25.5">
-      <c r="A104" s="312"/>
+      <c r="A104" s="271"/>
       <c r="B104" s="107" t="s">
         <v>204</v>
       </c>
@@ -16150,7 +16171,7 @@
       </c>
     </row>
     <row r="105" spans="1:32" ht="38.25">
-      <c r="A105" s="312"/>
+      <c r="A105" s="271"/>
       <c r="B105" s="107" t="s">
         <v>205</v>
       </c>
@@ -16218,7 +16239,7 @@
       </c>
     </row>
     <row r="106" spans="1:32" ht="38.25">
-      <c r="A106" s="312"/>
+      <c r="A106" s="271"/>
       <c r="B106" s="107" t="s">
         <v>206</v>
       </c>
@@ -16286,7 +16307,7 @@
       </c>
     </row>
     <row r="107" spans="1:32" ht="25.5">
-      <c r="A107" s="311" t="s">
+      <c r="A107" s="270" t="s">
         <v>26</v>
       </c>
       <c r="B107" s="59" t="s">
@@ -16355,7 +16376,7 @@
       </c>
     </row>
     <row r="108" spans="1:32" ht="25.5">
-      <c r="A108" s="312"/>
+      <c r="A108" s="271"/>
       <c r="B108" s="109" t="s">
         <v>112</v>
       </c>
@@ -16422,7 +16443,7 @@
       </c>
     </row>
     <row r="109" spans="1:32" ht="25.5">
-      <c r="A109" s="312"/>
+      <c r="A109" s="271"/>
       <c r="B109" s="109" t="s">
         <v>64</v>
       </c>
@@ -16489,7 +16510,7 @@
       </c>
     </row>
     <row r="110" spans="1:32" ht="51">
-      <c r="A110" s="312"/>
+      <c r="A110" s="271"/>
       <c r="B110" s="109" t="s">
         <v>113</v>
       </c>
@@ -16555,8 +16576,8 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:32" ht="63.75">
-      <c r="A111" s="311" t="s">
+    <row r="111" spans="1:32" ht="51">
+      <c r="A111" s="270" t="s">
         <v>27</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -16626,7 +16647,7 @@
       </c>
     </row>
     <row r="112" spans="1:32" ht="51">
-      <c r="A112" s="312"/>
+      <c r="A112" s="271"/>
       <c r="B112" s="97" t="s">
         <v>208</v>
       </c>
@@ -16694,7 +16715,7 @@
       </c>
     </row>
     <row r="113" spans="1:32" ht="51">
-      <c r="A113" s="312"/>
+      <c r="A113" s="271"/>
       <c r="B113" s="97" t="s">
         <v>209</v>
       </c>
@@ -16762,7 +16783,7 @@
       </c>
     </row>
     <row r="114" spans="1:32" ht="63.75">
-      <c r="A114" s="312"/>
+      <c r="A114" s="271"/>
       <c r="B114" s="97" t="s">
         <v>210</v>
       </c>
@@ -16830,7 +16851,7 @@
       </c>
     </row>
     <row r="115" spans="1:32" ht="38.25">
-      <c r="A115" s="311" t="s">
+      <c r="A115" s="270" t="s">
         <v>29</v>
       </c>
       <c r="B115" s="59" t="s">
@@ -16900,7 +16921,7 @@
       </c>
     </row>
     <row r="116" spans="1:32" ht="25.5">
-      <c r="A116" s="312"/>
+      <c r="A116" s="271"/>
       <c r="B116" s="109" t="s">
         <v>115</v>
       </c>
@@ -16968,7 +16989,7 @@
       </c>
     </row>
     <row r="117" spans="1:32" ht="38.25">
-      <c r="A117" s="312"/>
+      <c r="A117" s="271"/>
       <c r="B117" s="109" t="s">
         <v>211</v>
       </c>
@@ -17036,7 +17057,7 @@
       </c>
     </row>
     <row r="118" spans="1:32" ht="25.5">
-      <c r="A118" s="312"/>
+      <c r="A118" s="271"/>
       <c r="B118" s="109" t="s">
         <v>212</v>
       </c>
@@ -17104,7 +17125,7 @@
       </c>
     </row>
     <row r="119" spans="1:32">
-      <c r="A119" s="311" t="s">
+      <c r="A119" s="270" t="s">
         <v>30</v>
       </c>
       <c r="B119" s="59" t="s">
@@ -17170,8 +17191,8 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:32" ht="38.25">
-      <c r="A120" s="312"/>
+    <row r="120" spans="1:32" ht="25.5">
+      <c r="A120" s="271"/>
       <c r="B120" s="111" t="s">
         <v>117</v>
       </c>
@@ -17239,7 +17260,7 @@
       </c>
     </row>
     <row r="121" spans="1:32" ht="25.5">
-      <c r="A121" s="312"/>
+      <c r="A121" s="271"/>
       <c r="B121" s="111" t="s">
         <v>118</v>
       </c>
@@ -17307,7 +17328,7 @@
       </c>
     </row>
     <row r="122" spans="1:32" ht="38.25">
-      <c r="A122" s="312"/>
+      <c r="A122" s="271"/>
       <c r="B122" s="107" t="s">
         <v>213</v>
       </c>
@@ -17359,7 +17380,7 @@
       <c r="AF122" s="45"/>
     </row>
     <row r="123" spans="1:32" ht="51">
-      <c r="A123" s="312"/>
+      <c r="A123" s="271"/>
       <c r="B123" s="181" t="s">
         <v>208</v>
       </c>
@@ -17399,7 +17420,7 @@
       <c r="AF123" s="45"/>
     </row>
     <row r="124" spans="1:32" ht="51">
-      <c r="A124" s="312"/>
+      <c r="A124" s="271"/>
       <c r="B124" s="110" t="s">
         <v>209</v>
       </c>
@@ -17463,7 +17484,7 @@
       </c>
     </row>
     <row r="125" spans="1:32" ht="51">
-      <c r="A125" s="338" t="s">
+      <c r="A125" s="345" t="s">
         <v>31</v>
       </c>
       <c r="B125" s="59" t="s">
@@ -17531,7 +17552,7 @@
       </c>
     </row>
     <row r="126" spans="1:32" ht="51">
-      <c r="A126" s="339"/>
+      <c r="A126" s="346"/>
       <c r="B126" s="113" t="s">
         <v>215</v>
       </c>
@@ -17593,7 +17614,7 @@
       </c>
     </row>
     <row r="127" spans="1:32" ht="25.5">
-      <c r="A127" s="339"/>
+      <c r="A127" s="346"/>
       <c r="B127" s="107" t="s">
         <v>216</v>
       </c>
@@ -17659,7 +17680,7 @@
       </c>
     </row>
     <row r="128" spans="1:32" ht="25.5">
-      <c r="A128" s="339"/>
+      <c r="A128" s="346"/>
       <c r="B128" s="107" t="s">
         <v>119</v>
       </c>
@@ -17725,7 +17746,7 @@
       </c>
     </row>
     <row r="129" spans="1:32" ht="63.75">
-      <c r="A129" s="323"/>
+      <c r="A129" s="241"/>
       <c r="B129" s="97" t="s">
         <v>217</v>
       </c>
@@ -17791,7 +17812,7 @@
       </c>
     </row>
     <row r="130" spans="1:32" ht="30">
-      <c r="A130" s="338" t="s">
+      <c r="A130" s="345" t="s">
         <v>32</v>
       </c>
       <c r="B130" s="67" t="s">
@@ -17859,7 +17880,7 @@
       </c>
     </row>
     <row r="131" spans="1:32" ht="25.5">
-      <c r="A131" s="342"/>
+      <c r="A131" s="349"/>
       <c r="B131" s="107" t="s">
         <v>219</v>
       </c>
@@ -17925,7 +17946,7 @@
       </c>
     </row>
     <row r="132" spans="1:32">
-      <c r="A132" s="342"/>
+      <c r="A132" s="349"/>
       <c r="B132" s="107" t="s">
         <v>220</v>
       </c>
@@ -17991,7 +18012,7 @@
       </c>
     </row>
     <row r="133" spans="1:32" ht="25.5">
-      <c r="A133" s="342"/>
+      <c r="A133" s="349"/>
       <c r="B133" s="107" t="s">
         <v>221</v>
       </c>
@@ -18057,7 +18078,7 @@
       </c>
     </row>
     <row r="134" spans="1:32" ht="38.25">
-      <c r="A134" s="311" t="s">
+      <c r="A134" s="270" t="s">
         <v>33</v>
       </c>
       <c r="B134" s="59" t="s">
@@ -18123,7 +18144,7 @@
       </c>
     </row>
     <row r="135" spans="1:32" ht="38.25">
-      <c r="A135" s="312"/>
+      <c r="A135" s="271"/>
       <c r="B135" s="114" t="s">
         <v>222</v>
       </c>
@@ -18191,7 +18212,7 @@
       </c>
     </row>
     <row r="136" spans="1:32" ht="51">
-      <c r="A136" s="312"/>
+      <c r="A136" s="271"/>
       <c r="B136" s="114" t="s">
         <v>223</v>
       </c>
@@ -18259,7 +18280,7 @@
       </c>
     </row>
     <row r="137" spans="1:32" ht="38.25">
-      <c r="A137" s="312"/>
+      <c r="A137" s="271"/>
       <c r="B137" s="114" t="s">
         <v>224</v>
       </c>
@@ -18327,7 +18348,7 @@
       </c>
     </row>
     <row r="138" spans="1:32" ht="60">
-      <c r="A138" s="338" t="s">
+      <c r="A138" s="345" t="s">
         <v>34</v>
       </c>
       <c r="B138" s="68" t="s">
@@ -18395,7 +18416,7 @@
       </c>
     </row>
     <row r="139" spans="1:32" ht="42.75">
-      <c r="A139" s="339"/>
+      <c r="A139" s="346"/>
       <c r="B139" s="115" t="s">
         <v>226</v>
       </c>
@@ -18462,7 +18483,7 @@
       </c>
     </row>
     <row r="140" spans="1:32" ht="28.5">
-      <c r="A140" s="339"/>
+      <c r="A140" s="346"/>
       <c r="B140" s="115" t="s">
         <v>227</v>
       </c>
@@ -18528,7 +18549,7 @@
       </c>
     </row>
     <row r="141" spans="1:32" ht="28.5">
-      <c r="A141" s="339"/>
+      <c r="A141" s="346"/>
       <c r="B141" s="115" t="s">
         <v>228</v>
       </c>
@@ -18594,7 +18615,7 @@
       </c>
     </row>
     <row r="142" spans="1:32" ht="28.5">
-      <c r="A142" s="323"/>
+      <c r="A142" s="241"/>
       <c r="B142" s="116" t="s">
         <v>229</v>
       </c>
@@ -18660,7 +18681,7 @@
       </c>
     </row>
     <row r="143" spans="1:32" ht="89.25">
-      <c r="A143" s="311" t="s">
+      <c r="A143" s="270" t="s">
         <v>36</v>
       </c>
       <c r="B143" s="59" t="s">
@@ -18728,7 +18749,7 @@
       </c>
     </row>
     <row r="144" spans="1:32" ht="38.25">
-      <c r="A144" s="312"/>
+      <c r="A144" s="271"/>
       <c r="B144" s="113" t="s">
         <v>230</v>
       </c>
@@ -18794,7 +18815,7 @@
       </c>
     </row>
     <row r="145" spans="1:32" ht="51">
-      <c r="A145" s="312"/>
+      <c r="A145" s="271"/>
       <c r="B145" s="111" t="s">
         <v>65</v>
       </c>
@@ -18860,7 +18881,7 @@
       </c>
     </row>
     <row r="146" spans="1:32" ht="63.75">
-      <c r="A146" s="312"/>
+      <c r="A146" s="271"/>
       <c r="B146" s="107" t="s">
         <v>66</v>
       </c>
@@ -18926,7 +18947,7 @@
       </c>
     </row>
     <row r="147" spans="1:32" ht="38.25">
-      <c r="A147" s="312"/>
+      <c r="A147" s="271"/>
       <c r="B147" s="107" t="s">
         <v>67</v>
       </c>
@@ -18992,7 +19013,7 @@
       </c>
     </row>
     <row r="148" spans="1:32" ht="51">
-      <c r="A148" s="311" t="s">
+      <c r="A148" s="270" t="s">
         <v>37</v>
       </c>
       <c r="B148" s="59" t="s">
@@ -19058,7 +19079,7 @@
       </c>
     </row>
     <row r="149" spans="1:32" ht="51">
-      <c r="A149" s="312"/>
+      <c r="A149" s="271"/>
       <c r="B149" s="111" t="s">
         <v>124</v>
       </c>
@@ -19122,7 +19143,7 @@
       </c>
     </row>
     <row r="150" spans="1:32" ht="63.75">
-      <c r="A150" s="312"/>
+      <c r="A150" s="271"/>
       <c r="B150" s="117" t="s">
         <v>231</v>
       </c>
@@ -19189,7 +19210,7 @@
       </c>
     </row>
     <row r="151" spans="1:32" ht="63.75">
-      <c r="A151" s="312"/>
+      <c r="A151" s="271"/>
       <c r="B151" s="111" t="s">
         <v>125</v>
       </c>
@@ -19256,7 +19277,7 @@
       </c>
     </row>
     <row r="152" spans="1:32" ht="51">
-      <c r="A152" s="311" t="s">
+      <c r="A152" s="270" t="s">
         <v>38</v>
       </c>
       <c r="B152" s="64" t="s">
@@ -19325,7 +19346,7 @@
       </c>
     </row>
     <row r="153" spans="1:32" ht="63.75">
-      <c r="A153" s="312"/>
+      <c r="A153" s="271"/>
       <c r="B153" s="107" t="s">
         <v>233</v>
       </c>
@@ -19392,7 +19413,7 @@
       </c>
     </row>
     <row r="154" spans="1:32" ht="51">
-      <c r="A154" s="312"/>
+      <c r="A154" s="271"/>
       <c r="B154" s="107" t="s">
         <v>234</v>
       </c>
@@ -19459,7 +19480,7 @@
       </c>
     </row>
     <row r="155" spans="1:32" ht="51">
-      <c r="A155" s="312"/>
+      <c r="A155" s="271"/>
       <c r="B155" s="107" t="s">
         <v>235</v>
       </c>
@@ -19526,7 +19547,7 @@
       </c>
     </row>
     <row r="156" spans="1:32" ht="76.5">
-      <c r="A156" s="311" t="s">
+      <c r="A156" s="270" t="s">
         <v>39</v>
       </c>
       <c r="B156" s="64" t="s">
@@ -19594,7 +19615,7 @@
       </c>
     </row>
     <row r="157" spans="1:32" ht="89.25">
-      <c r="A157" s="312"/>
+      <c r="A157" s="271"/>
       <c r="B157" s="109" t="s">
         <v>237</v>
       </c>
@@ -19661,7 +19682,7 @@
       </c>
     </row>
     <row r="158" spans="1:32" ht="63.75">
-      <c r="A158" s="312"/>
+      <c r="A158" s="271"/>
       <c r="B158" s="107" t="s">
         <v>238</v>
       </c>
@@ -19728,7 +19749,7 @@
       </c>
     </row>
     <row r="159" spans="1:32" ht="76.5">
-      <c r="A159" s="312"/>
+      <c r="A159" s="271"/>
       <c r="B159" s="107" t="s">
         <v>239</v>
       </c>
@@ -19795,7 +19816,7 @@
       </c>
     </row>
     <row r="160" spans="1:32" ht="38.25">
-      <c r="A160" s="311" t="s">
+      <c r="A160" s="270" t="s">
         <v>126</v>
       </c>
       <c r="B160" s="64" t="s">
@@ -19864,7 +19885,7 @@
       </c>
     </row>
     <row r="161" spans="1:32" ht="38.25">
-      <c r="A161" s="312"/>
+      <c r="A161" s="271"/>
       <c r="B161" s="111" t="s">
         <v>241</v>
       </c>
@@ -19931,7 +19952,7 @@
       </c>
     </row>
     <row r="162" spans="1:32" ht="51">
-      <c r="A162" s="312"/>
+      <c r="A162" s="271"/>
       <c r="B162" s="111" t="s">
         <v>242</v>
       </c>
@@ -19998,7 +20019,7 @@
       </c>
     </row>
     <row r="163" spans="1:32" ht="38.25">
-      <c r="A163" s="312"/>
+      <c r="A163" s="271"/>
       <c r="B163" s="111" t="s">
         <v>243</v>
       </c>
@@ -20065,7 +20086,7 @@
       </c>
     </row>
     <row r="164" spans="1:32" ht="38.25">
-      <c r="A164" s="340" t="s">
+      <c r="A164" s="347" t="s">
         <v>244</v>
       </c>
       <c r="B164" s="64" t="s">
@@ -20131,7 +20152,7 @@
       </c>
     </row>
     <row r="165" spans="1:32" ht="51">
-      <c r="A165" s="341"/>
+      <c r="A165" s="350"/>
       <c r="B165" s="118" t="s">
         <v>246</v>
       </c>
@@ -20195,7 +20216,7 @@
       </c>
     </row>
     <row r="166" spans="1:32" ht="51">
-      <c r="A166" s="341"/>
+      <c r="A166" s="350"/>
       <c r="B166" s="98" t="s">
         <v>247</v>
       </c>
@@ -20262,7 +20283,7 @@
       </c>
     </row>
     <row r="167" spans="1:32" ht="25.5">
-      <c r="A167" s="341"/>
+      <c r="A167" s="350"/>
       <c r="B167" s="98" t="s">
         <v>248</v>
       </c>
@@ -20329,7 +20350,7 @@
       </c>
     </row>
     <row r="168" spans="1:32" ht="25.5">
-      <c r="A168" s="311" t="s">
+      <c r="A168" s="270" t="s">
         <v>40</v>
       </c>
       <c r="B168" s="63" t="s">
@@ -20395,7 +20416,7 @@
       </c>
     </row>
     <row r="169" spans="1:32" ht="57">
-      <c r="A169" s="312"/>
+      <c r="A169" s="271"/>
       <c r="B169" s="141" t="s">
         <v>335</v>
       </c>
@@ -20459,7 +20480,7 @@
       </c>
     </row>
     <row r="170" spans="1:32" ht="28.5">
-      <c r="A170" s="312"/>
+      <c r="A170" s="271"/>
       <c r="B170" s="141" t="s">
         <v>336</v>
       </c>
@@ -20523,7 +20544,7 @@
       </c>
     </row>
     <row r="171" spans="1:32">
-      <c r="A171" s="312"/>
+      <c r="A171" s="271"/>
       <c r="B171" s="142" t="s">
         <v>337</v>
       </c>
@@ -20587,7 +20608,7 @@
       </c>
     </row>
     <row r="172" spans="1:32" ht="51">
-      <c r="A172" s="338" t="s">
+      <c r="A172" s="345" t="s">
         <v>41</v>
       </c>
       <c r="B172" s="64" t="s">
@@ -20653,7 +20674,7 @@
       </c>
     </row>
     <row r="173" spans="1:32" ht="38.25">
-      <c r="A173" s="339"/>
+      <c r="A173" s="346"/>
       <c r="B173" s="70" t="s">
         <v>251</v>
       </c>
@@ -20719,7 +20740,7 @@
       </c>
     </row>
     <row r="174" spans="1:32" ht="76.5">
-      <c r="A174" s="339"/>
+      <c r="A174" s="346"/>
       <c r="B174" s="70" t="str">
         <f>'[1]PAT 2024'!$C$180</f>
         <v>Investigar y comparar la simbología utilizada en los programas de ordenamiento territorial, turísticos, movilidad y seguridad vial, atlas de riesgo, áreas naturales protegidas y programas de desarrollo urbano en sus diferentes clasificaciones.</v>
@@ -20787,7 +20808,7 @@
       </c>
     </row>
     <row r="175" spans="1:32" ht="25.5">
-      <c r="A175" s="339"/>
+      <c r="A175" s="346"/>
       <c r="B175" s="70" t="s">
         <v>252</v>
       </c>
@@ -20855,7 +20876,7 @@
       </c>
     </row>
     <row r="176" spans="1:32" ht="51">
-      <c r="A176" s="323"/>
+      <c r="A176" s="241"/>
       <c r="B176" s="70" t="s">
         <v>253</v>
       </c>
@@ -20923,7 +20944,7 @@
       </c>
     </row>
     <row r="177" spans="1:32" ht="63.75">
-      <c r="A177" s="311" t="s">
+      <c r="A177" s="270" t="s">
         <v>42</v>
       </c>
       <c r="B177" s="64" t="s">
@@ -20989,7 +21010,7 @@
       </c>
     </row>
     <row r="178" spans="1:32" ht="38.25">
-      <c r="A178" s="312"/>
+      <c r="A178" s="271"/>
       <c r="B178" s="107" t="s">
         <v>129</v>
       </c>
@@ -21053,7 +21074,7 @@
       </c>
     </row>
     <row r="179" spans="1:32" ht="63.75">
-      <c r="A179" s="312"/>
+      <c r="A179" s="271"/>
       <c r="B179" s="70" t="s">
         <v>255</v>
       </c>
@@ -21117,7 +21138,7 @@
       </c>
     </row>
     <row r="180" spans="1:32" ht="63.75">
-      <c r="A180" s="312"/>
+      <c r="A180" s="271"/>
       <c r="B180" s="107" t="s">
         <v>256</v>
       </c>
@@ -21180,8 +21201,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="181" spans="1:32" ht="63.75">
-      <c r="A181" s="311" t="s">
+    <row r="181" spans="1:32" ht="76.5">
+      <c r="A181" s="270" t="s">
         <v>43</v>
       </c>
       <c r="B181" s="64" t="s">
@@ -21250,7 +21271,7 @@
       </c>
     </row>
     <row r="182" spans="1:32" ht="76.5">
-      <c r="A182" s="312"/>
+      <c r="A182" s="271"/>
       <c r="B182" s="119" t="s">
         <v>258</v>
       </c>
@@ -21314,7 +21335,7 @@
       </c>
     </row>
     <row r="183" spans="1:32" ht="25.5">
-      <c r="A183" s="312"/>
+      <c r="A183" s="271"/>
       <c r="B183" s="97" t="s">
         <v>259</v>
       </c>
@@ -21378,7 +21399,7 @@
       </c>
     </row>
     <row r="184" spans="1:32" ht="38.25">
-      <c r="A184" s="312"/>
+      <c r="A184" s="271"/>
       <c r="B184" s="98" t="s">
         <v>260</v>
       </c>
@@ -21442,7 +21463,7 @@
       </c>
     </row>
     <row r="185" spans="1:32" ht="38.25">
-      <c r="A185" s="311" t="s">
+      <c r="A185" s="270" t="s">
         <v>44</v>
       </c>
       <c r="B185" s="64" t="s">
@@ -21508,7 +21529,7 @@
       </c>
     </row>
     <row r="186" spans="1:32" ht="25.5">
-      <c r="A186" s="312"/>
+      <c r="A186" s="271"/>
       <c r="B186" s="107" t="s">
         <v>262</v>
       </c>
@@ -21572,7 +21593,7 @@
       </c>
     </row>
     <row r="187" spans="1:32" ht="25.5">
-      <c r="A187" s="312"/>
+      <c r="A187" s="271"/>
       <c r="B187" s="107" t="s">
         <v>261</v>
       </c>
@@ -21636,7 +21657,7 @@
       </c>
     </row>
     <row r="188" spans="1:32" ht="25.5">
-      <c r="A188" s="312"/>
+      <c r="A188" s="271"/>
       <c r="B188" s="107" t="s">
         <v>263</v>
       </c>
@@ -21703,7 +21724,7 @@
       </c>
     </row>
     <row r="189" spans="1:32" ht="51">
-      <c r="A189" s="338" t="s">
+      <c r="A189" s="345" t="s">
         <v>45</v>
       </c>
       <c r="B189" s="71" t="s">
@@ -21769,7 +21790,7 @@
       </c>
     </row>
     <row r="190" spans="1:32" ht="25.5">
-      <c r="A190" s="339"/>
+      <c r="A190" s="346"/>
       <c r="B190" s="97" t="s">
         <v>265</v>
       </c>
@@ -21836,7 +21857,7 @@
       </c>
     </row>
     <row r="191" spans="1:32" ht="38.25">
-      <c r="A191" s="339"/>
+      <c r="A191" s="346"/>
       <c r="B191" s="111" t="s">
         <v>266</v>
       </c>
@@ -21900,7 +21921,7 @@
       </c>
     </row>
     <row r="192" spans="1:32" ht="38.25">
-      <c r="A192" s="339"/>
+      <c r="A192" s="346"/>
       <c r="B192" s="97" t="s">
         <v>267</v>
       </c>
@@ -21968,7 +21989,7 @@
       </c>
     </row>
     <row r="193" spans="1:32" ht="38.25">
-      <c r="A193" s="323"/>
+      <c r="A193" s="241"/>
       <c r="B193" s="98" t="s">
         <v>268</v>
       </c>
@@ -22034,7 +22055,7 @@
       </c>
     </row>
     <row r="194" spans="1:32" ht="51">
-      <c r="A194" s="311" t="s">
+      <c r="A194" s="270" t="s">
         <v>46</v>
       </c>
       <c r="B194" s="71" t="s">
@@ -22100,7 +22121,7 @@
       </c>
     </row>
     <row r="195" spans="1:32" ht="38.25">
-      <c r="A195" s="312"/>
+      <c r="A195" s="271"/>
       <c r="B195" s="97" t="s">
         <v>270</v>
       </c>
@@ -22164,7 +22185,7 @@
       </c>
     </row>
     <row r="196" spans="1:32" ht="38.25">
-      <c r="A196" s="312"/>
+      <c r="A196" s="271"/>
       <c r="B196" s="97" t="s">
         <v>271</v>
       </c>
@@ -22228,7 +22249,7 @@
       </c>
     </row>
     <row r="197" spans="1:32" ht="38.25">
-      <c r="A197" s="312"/>
+      <c r="A197" s="271"/>
       <c r="B197" s="97" t="s">
         <v>272</v>
       </c>
@@ -22292,7 +22313,7 @@
       </c>
     </row>
     <row r="198" spans="1:32" ht="38.25">
-      <c r="A198" s="338" t="s">
+      <c r="A198" s="345" t="s">
         <v>47</v>
       </c>
       <c r="B198" s="63" t="s">
@@ -22360,7 +22381,7 @@
       </c>
     </row>
     <row r="199" spans="1:32" ht="63.75">
-      <c r="A199" s="339"/>
+      <c r="A199" s="346"/>
       <c r="B199" s="98" t="s">
         <v>274</v>
       </c>
@@ -22426,7 +22447,7 @@
       </c>
     </row>
     <row r="200" spans="1:32" ht="38.25">
-      <c r="A200" s="339"/>
+      <c r="A200" s="346"/>
       <c r="B200" s="98" t="s">
         <v>275</v>
       </c>
@@ -22493,7 +22514,7 @@
       </c>
     </row>
     <row r="201" spans="1:32" ht="76.5">
-      <c r="A201" s="339"/>
+      <c r="A201" s="346"/>
       <c r="B201" s="110" t="s">
         <v>276</v>
       </c>
@@ -22559,7 +22580,7 @@
       </c>
     </row>
     <row r="202" spans="1:32" ht="63.75">
-      <c r="A202" s="323"/>
+      <c r="A202" s="241"/>
       <c r="B202" s="112" t="s">
         <v>277</v>
       </c>
@@ -22625,7 +22646,7 @@
       </c>
     </row>
     <row r="203" spans="1:32" ht="76.5">
-      <c r="A203" s="311" t="s">
+      <c r="A203" s="270" t="s">
         <v>48</v>
       </c>
       <c r="B203" s="65" t="s">
@@ -22693,7 +22714,7 @@
       </c>
     </row>
     <row r="204" spans="1:32" ht="76.5">
-      <c r="A204" s="312"/>
+      <c r="A204" s="271"/>
       <c r="B204" s="120" t="s">
         <v>279</v>
       </c>
@@ -22759,7 +22780,7 @@
       </c>
     </row>
     <row r="205" spans="1:32" ht="76.5">
-      <c r="A205" s="312"/>
+      <c r="A205" s="271"/>
       <c r="B205" s="111" t="s">
         <v>280</v>
       </c>
@@ -22825,7 +22846,7 @@
       </c>
     </row>
     <row r="206" spans="1:32" ht="89.25">
-      <c r="A206" s="312"/>
+      <c r="A206" s="271"/>
       <c r="B206" s="110" t="s">
         <v>281</v>
       </c>
@@ -22891,7 +22912,7 @@
       </c>
     </row>
     <row r="207" spans="1:32" ht="102">
-      <c r="A207" s="343" t="s">
+      <c r="A207" s="341" t="s">
         <v>338</v>
       </c>
       <c r="B207" s="147" t="s">
@@ -22955,7 +22976,7 @@
       </c>
     </row>
     <row r="208" spans="1:32" ht="42.75">
-      <c r="A208" s="343"/>
+      <c r="A208" s="341"/>
       <c r="B208" s="148" t="s">
         <v>340</v>
       </c>
@@ -23017,7 +23038,7 @@
       </c>
     </row>
     <row r="209" spans="1:31" ht="28.5">
-      <c r="A209" s="343"/>
+      <c r="A209" s="341"/>
       <c r="B209" s="148" t="s">
         <v>341</v>
       </c>
@@ -23079,7 +23100,7 @@
       </c>
     </row>
     <row r="210" spans="1:31" ht="42.75">
-      <c r="A210" s="343"/>
+      <c r="A210" s="341"/>
       <c r="B210" s="148" t="s">
         <v>342</v>
       </c>
@@ -23240,6 +23261,38 @@
     <protectedRange sqref="B171" name="Rango1_5_4"/>
   </protectedRanges>
   <mergeCells count="48">
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A90"/>
     <mergeCell ref="A207:A210"/>
     <mergeCell ref="C5:O5"/>
     <mergeCell ref="Q5:AC5"/>
@@ -23256,38 +23309,6 @@
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A124"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="A189:A193"/>
-    <mergeCell ref="A194:A197"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:N6">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="yesterday">
